--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -19,11 +19,11 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$H$1:$H$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="568">
   <si>
     <t>alias</t>
   </si>
@@ -450,6 +450,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -549,6 +561,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -666,6 +696,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -673,6 +706,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2234,10 +2270,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2278,10 +2314,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2308,7 +2344,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2328,7 +2364,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2345,7 +2381,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2362,7 +2398,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2379,7 +2415,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2396,7 +2432,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2413,7 +2449,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2430,7 +2466,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2447,7 +2483,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2464,7 +2500,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2478,7 +2514,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2492,7 +2528,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2506,7 +2542,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2520,7 +2556,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2530,8 +2566,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2541,8 +2580,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2552,8 +2594,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2563,8 +2608,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2575,7 +2623,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2586,7 +2634,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2597,7 +2645,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2608,7 +2656,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2619,7 +2667,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2630,7 +2678,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2641,7 +2689,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2652,7 +2700,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2663,7 +2711,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2674,7 +2722,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2685,7 +2733,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2696,7 +2744,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2707,7 +2755,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2718,7 +2766,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2726,7 +2774,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2734,7 +2782,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2742,7 +2790,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2750,7 +2798,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2758,7 +2806,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2766,7 +2814,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2774,7 +2822,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2782,7 +2830,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -2790,7 +2838,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -2798,176 +2846,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2992,27 +3080,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3035,122 +3123,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3177,72 +3265,72 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -3265,1437 +3353,1437 @@
   <sheetData>
     <row r="1" spans="8:8">
       <c r="H1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="8:8">
       <c r="H2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="8:8">
       <c r="H3" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="8:8">
       <c r="H4" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="8:8">
       <c r="H6" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="8:8">
       <c r="H7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="H8" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="8:8">
       <c r="H9" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="8:8">
       <c r="H10" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="8:8">
       <c r="H11" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="8:8">
       <c r="H12" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="8:8">
       <c r="H13" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="8:8">
       <c r="H14" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="8:8">
       <c r="H15" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="8:8">
       <c r="H16" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="8:8">
       <c r="H18" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="8:8">
       <c r="H37" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="8:8">
       <c r="H38" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="8:8">
       <c r="H39" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="8:8">
       <c r="H40" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="8:8">
       <c r="H42" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="8:8">
       <c r="H43" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="8:8">
       <c r="H44" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="8:8">
       <c r="H45" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="8:8">
       <c r="H46" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="8:8">
       <c r="H47" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="8:8">
       <c r="H48" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="8:8">
       <c r="H50" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="8:8">
       <c r="H51" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="8:8">
       <c r="H52" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="8:8">
       <c r="H53" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="8:8">
       <c r="H54" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="8:8">
       <c r="H55" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="8:8">
       <c r="H56" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="8:8">
       <c r="H57" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="8:8">
       <c r="H58" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="8:8">
       <c r="H59" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="8:8">
       <c r="H60" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="8:8">
       <c r="H61" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="8:8">
       <c r="H63" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="8:8">
       <c r="H64" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="8:8">
       <c r="H65" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="8:8">
       <c r="H66" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="8:8">
       <c r="H67" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68" spans="8:8">
       <c r="H68" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="8:8">
       <c r="H69" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" spans="8:8">
       <c r="H70" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="8:8">
       <c r="H71" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72" spans="8:8">
       <c r="H72" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73" spans="8:8">
       <c r="H73" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="8:8">
       <c r="H74" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="8:8">
       <c r="H75" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="8:8">
       <c r="H76" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" spans="8:8">
       <c r="H77" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="8:8">
       <c r="H78" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="8:8">
       <c r="H79" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="8:8">
       <c r="H80" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="8:8">
       <c r="H81" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="8:8">
       <c r="H82" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="8:8">
       <c r="H83" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="8:8">
       <c r="H84" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="8:8">
       <c r="H85" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="86" spans="8:8">
       <c r="H86" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" spans="8:8">
       <c r="H87" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="8:8">
       <c r="H88" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" spans="8:8">
       <c r="H89" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="8:8">
       <c r="H90" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="91" spans="8:8">
       <c r="H91" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" spans="8:8">
       <c r="H92" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93" spans="8:8">
       <c r="H93" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="8:8">
       <c r="H94" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="8:8">
       <c r="H95" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="8:8">
       <c r="H96" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="8:8">
       <c r="H97" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="8:8">
       <c r="H98" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99" spans="8:8">
       <c r="H99" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="100" spans="8:8">
       <c r="H100" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="101" spans="8:8">
       <c r="H101" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="102" spans="8:8">
       <c r="H102" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="8:8">
       <c r="H103" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="104" spans="8:8">
       <c r="H104" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="8:8">
       <c r="H105" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="8:8">
       <c r="H106" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="8:8">
       <c r="H107" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="8:8">
       <c r="H108" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="8:8">
       <c r="H109" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110" spans="8:8">
       <c r="H110" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="8:8">
       <c r="H111" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112" spans="8:8">
       <c r="H112" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" spans="8:8">
       <c r="H113" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="114" spans="8:8">
       <c r="H114" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115" spans="8:8">
       <c r="H115" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="116" spans="8:8">
       <c r="H116" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="8:8">
       <c r="H117" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="8:8">
       <c r="H118" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="119" spans="8:8">
       <c r="H119" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="120" spans="8:8">
       <c r="H120" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="8:8">
       <c r="H121" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="122" spans="8:8">
       <c r="H122" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="123" spans="8:8">
       <c r="H123" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124" spans="8:8">
       <c r="H124" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="125" spans="8:8">
       <c r="H125" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="126" spans="8:8">
       <c r="H126" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127" spans="8:8">
       <c r="H127" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="128" spans="8:8">
       <c r="H128" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="8:8">
       <c r="H129" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130" spans="8:8">
       <c r="H130" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="131" spans="8:8">
       <c r="H131" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="8:8">
       <c r="H132" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="133" spans="8:8">
       <c r="H133" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="134" spans="8:8">
       <c r="H134" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="135" spans="8:8">
       <c r="H135" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="136" spans="8:8">
       <c r="H136" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="8:8">
       <c r="H137" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="138" spans="8:8">
       <c r="H138" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139" spans="8:8">
       <c r="H139" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="140" spans="8:8">
       <c r="H140" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="141" spans="8:8">
       <c r="H141" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="142" spans="8:8">
       <c r="H142" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="143" spans="8:8">
       <c r="H143" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144" spans="8:8">
       <c r="H144" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="145" spans="8:8">
       <c r="H145" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="146" spans="8:8">
       <c r="H146" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="147" spans="8:8">
       <c r="H147" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148" spans="8:8">
       <c r="H148" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="149" spans="8:8">
       <c r="H149" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="150" spans="8:8">
       <c r="H150" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151" spans="8:8">
       <c r="H151" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152" spans="8:8">
       <c r="H152" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153" spans="8:8">
       <c r="H153" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="154" spans="8:8">
       <c r="H154" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="155" spans="8:8">
       <c r="H155" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="156" spans="8:8">
       <c r="H156" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="157" spans="8:8">
       <c r="H157" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="158" spans="8:8">
       <c r="H158" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="159" spans="8:8">
       <c r="H159" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="160" spans="8:8">
       <c r="H160" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="161" spans="8:8">
       <c r="H161" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="162" spans="8:8">
       <c r="H162" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="163" spans="8:8">
       <c r="H163" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="164" spans="8:8">
       <c r="H164" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="8:8">
       <c r="H165" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166" spans="8:8">
       <c r="H166" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167" spans="8:8">
       <c r="H167" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="168" spans="8:8">
       <c r="H168" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="169" spans="8:8">
       <c r="H169" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170" spans="8:8">
       <c r="H170" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="171" spans="8:8">
       <c r="H171" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="172" spans="8:8">
       <c r="H172" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="8:8">
       <c r="H173" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="174" spans="8:8">
       <c r="H174" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="175" spans="8:8">
       <c r="H175" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="176" spans="8:8">
       <c r="H176" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="177" spans="8:8">
       <c r="H177" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="178" spans="8:8">
       <c r="H178" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="179" spans="8:8">
       <c r="H179" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="180" spans="8:8">
       <c r="H180" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181" spans="8:8">
       <c r="H181" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="182" spans="8:8">
       <c r="H182" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="183" spans="8:8">
       <c r="H183" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="184" spans="8:8">
       <c r="H184" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="185" spans="8:8">
       <c r="H185" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="186" spans="8:8">
       <c r="H186" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="187" spans="8:8">
       <c r="H187" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="188" spans="8:8">
       <c r="H188" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="189" spans="8:8">
       <c r="H189" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="190" spans="8:8">
       <c r="H190" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="191" spans="8:8">
       <c r="H191" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="192" spans="8:8">
       <c r="H192" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="193" spans="8:8">
       <c r="H193" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="194" spans="8:8">
       <c r="H194" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="195" spans="8:8">
       <c r="H195" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="196" spans="8:8">
       <c r="H196" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="197" spans="8:8">
       <c r="H197" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="198" spans="8:8">
       <c r="H198" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="199" spans="8:8">
       <c r="H199" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="200" spans="8:8">
       <c r="H200" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="201" spans="8:8">
       <c r="H201" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="202" spans="8:8">
       <c r="H202" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="203" spans="8:8">
       <c r="H203" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="204" spans="8:8">
       <c r="H204" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="205" spans="8:8">
       <c r="H205" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="206" spans="8:8">
       <c r="H206" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="207" spans="8:8">
       <c r="H207" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="208" spans="8:8">
       <c r="H208" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="209" spans="8:8">
       <c r="H209" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="210" spans="8:8">
       <c r="H210" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="211" spans="8:8">
       <c r="H211" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="212" spans="8:8">
       <c r="H212" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="213" spans="8:8">
       <c r="H213" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="214" spans="8:8">
       <c r="H214" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="215" spans="8:8">
       <c r="H215" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="216" spans="8:8">
       <c r="H216" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="217" spans="8:8">
       <c r="H217" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="218" spans="8:8">
       <c r="H218" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="219" spans="8:8">
       <c r="H219" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="220" spans="8:8">
       <c r="H220" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="221" spans="8:8">
       <c r="H221" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="222" spans="8:8">
       <c r="H222" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="223" spans="8:8">
       <c r="H223" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="224" spans="8:8">
       <c r="H224" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="225" spans="8:8">
       <c r="H225" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="226" spans="8:8">
       <c r="H226" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="227" spans="8:8">
       <c r="H227" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="228" spans="8:8">
       <c r="H228" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="229" spans="8:8">
       <c r="H229" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="230" spans="8:8">
       <c r="H230" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="231" spans="8:8">
       <c r="H231" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="232" spans="8:8">
       <c r="H232" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="233" spans="8:8">
       <c r="H233" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="234" spans="8:8">
       <c r="H234" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="235" spans="8:8">
       <c r="H235" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="236" spans="8:8">
       <c r="H236" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="237" spans="8:8">
       <c r="H237" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="238" spans="8:8">
       <c r="H238" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="239" spans="8:8">
       <c r="H239" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="240" spans="8:8">
       <c r="H240" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="241" spans="8:8">
       <c r="H241" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="242" spans="8:8">
       <c r="H242" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="243" spans="8:8">
       <c r="H243" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="244" spans="8:8">
       <c r="H244" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="245" spans="8:8">
       <c r="H245" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="246" spans="8:8">
       <c r="H246" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="247" spans="8:8">
       <c r="H247" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="248" spans="8:8">
       <c r="H248" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="249" spans="8:8">
       <c r="H249" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="250" spans="8:8">
       <c r="H250" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="251" spans="8:8">
       <c r="H251" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="252" spans="8:8">
       <c r="H252" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="253" spans="8:8">
       <c r="H253" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="254" spans="8:8">
       <c r="H254" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="255" spans="8:8">
       <c r="H255" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="256" spans="8:8">
       <c r="H256" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="257" spans="8:8">
       <c r="H257" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="258" spans="8:8">
       <c r="H258" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="259" spans="8:8">
       <c r="H259" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="260" spans="8:8">
       <c r="H260" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="261" spans="8:8">
       <c r="H261" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="262" spans="8:8">
       <c r="H262" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="263" spans="8:8">
       <c r="H263" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="264" spans="8:8">
       <c r="H264" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="265" spans="8:8">
       <c r="H265" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="266" spans="8:8">
       <c r="H266" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="267" spans="8:8">
       <c r="H267" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="268" spans="8:8">
       <c r="H268" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="269" spans="8:8">
       <c r="H269" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="270" spans="8:8">
       <c r="H270" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="271" spans="8:8">
       <c r="H271" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="272" spans="8:8">
       <c r="H272" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="273" spans="8:8">
       <c r="H273" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="274" spans="8:8">
       <c r="H274" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="275" spans="8:8">
       <c r="H275" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="276" spans="8:8">
       <c r="H276" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="277" spans="8:8">
       <c r="H277" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="278" spans="8:8">
       <c r="H278" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="8:8">
       <c r="H279" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="280" spans="8:8">
       <c r="H280" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="281" spans="8:8">
       <c r="H281" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="282" spans="8:8">
       <c r="H282" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="283" spans="8:8">
       <c r="H283" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="284" spans="8:8">
       <c r="H284" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="285" spans="8:8">
       <c r="H285" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="286" spans="8:8">
       <c r="H286" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="287" spans="8:8">
       <c r="H287" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -99,7 +99,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$H$1:$H$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$H$1:$H$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="569">
   <si>
     <t>alias</t>
   </si>
@@ -1041,6 +1041,9 @@
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -1710,7 +1713,7 @@
     <t>geographic location (country and/or sea)</t>
   </si>
   <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -3280,19 +3283,19 @@
         <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="150" customHeight="1">
@@ -3318,19 +3321,19 @@
         <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -3345,7 +3348,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:H287"/>
+  <dimension ref="H1:H288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4786,6 +4789,11 @@
         <v>557</v>
       </c>
     </row>
+    <row r="288" spans="8:8">
+      <c r="H288" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -1038,10 +1038,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="570">
   <si>
     <t>alias</t>
   </si>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3268,72 +3271,72 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -3356,1442 +3359,1442 @@
   <sheetData>
     <row r="1" spans="8:8">
       <c r="H1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="8:8">
       <c r="H2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="8:8">
       <c r="H3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="8:8">
       <c r="H4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="8:8">
       <c r="H6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="8:8">
       <c r="H7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="H8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="8:8">
       <c r="H9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="8:8">
       <c r="H10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="8:8">
       <c r="H11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="8:8">
       <c r="H12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="8:8">
       <c r="H13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="8:8">
       <c r="H14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="8:8">
       <c r="H15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="8:8">
       <c r="H16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="8:8">
       <c r="H18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="8:8">
       <c r="H37" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="8:8">
       <c r="H38" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="8:8">
       <c r="H39" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="8:8">
       <c r="H40" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="8:8">
       <c r="H42" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="8:8">
       <c r="H43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="8:8">
       <c r="H44" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="8:8">
       <c r="H45" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="8:8">
       <c r="H46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="8:8">
       <c r="H47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="8:8">
       <c r="H48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="8:8">
       <c r="H50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="8:8">
       <c r="H51" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="8:8">
       <c r="H52" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="8:8">
       <c r="H53" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="8:8">
       <c r="H54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="8:8">
       <c r="H55" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="8:8">
       <c r="H56" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="8:8">
       <c r="H57" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="8:8">
       <c r="H58" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="8:8">
       <c r="H59" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="8:8">
       <c r="H60" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="8:8">
       <c r="H61" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="8:8">
       <c r="H63" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="8:8">
       <c r="H64" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="8:8">
       <c r="H65" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="8:8">
       <c r="H66" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="8:8">
       <c r="H67" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="8:8">
       <c r="H68" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="8:8">
       <c r="H69" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="8:8">
       <c r="H70" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="8:8">
       <c r="H71" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="8:8">
       <c r="H72" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73" spans="8:8">
       <c r="H73" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="8:8">
       <c r="H74" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="8:8">
       <c r="H75" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="8:8">
       <c r="H76" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="8:8">
       <c r="H77" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="8:8">
       <c r="H78" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" spans="8:8">
       <c r="H79" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="8:8">
       <c r="H80" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="8:8">
       <c r="H81" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="8:8">
       <c r="H82" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="8:8">
       <c r="H83" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="8:8">
       <c r="H84" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="8:8">
       <c r="H85" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="8:8">
       <c r="H86" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="8:8">
       <c r="H87" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="8:8">
       <c r="H88" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="8:8">
       <c r="H89" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="8:8">
       <c r="H90" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91" spans="8:8">
       <c r="H91" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="92" spans="8:8">
       <c r="H92" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="8:8">
       <c r="H93" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="8:8">
       <c r="H94" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="8:8">
       <c r="H95" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="96" spans="8:8">
       <c r="H96" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97" spans="8:8">
       <c r="H97" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="98" spans="8:8">
       <c r="H98" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" spans="8:8">
       <c r="H99" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="8:8">
       <c r="H100" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="101" spans="8:8">
       <c r="H101" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="8:8">
       <c r="H102" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103" spans="8:8">
       <c r="H103" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="8:8">
       <c r="H104" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="8:8">
       <c r="H105" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="106" spans="8:8">
       <c r="H106" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107" spans="8:8">
       <c r="H107" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="8:8">
       <c r="H108" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" spans="8:8">
       <c r="H109" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="8:8">
       <c r="H110" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111" spans="8:8">
       <c r="H111" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112" spans="8:8">
       <c r="H112" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="113" spans="8:8">
       <c r="H113" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114" spans="8:8">
       <c r="H114" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="115" spans="8:8">
       <c r="H115" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="116" spans="8:8">
       <c r="H116" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117" spans="8:8">
       <c r="H117" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="118" spans="8:8">
       <c r="H118" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="119" spans="8:8">
       <c r="H119" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="120" spans="8:8">
       <c r="H120" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="121" spans="8:8">
       <c r="H121" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="122" spans="8:8">
       <c r="H122" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="123" spans="8:8">
       <c r="H123" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="124" spans="8:8">
       <c r="H124" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="125" spans="8:8">
       <c r="H125" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="126" spans="8:8">
       <c r="H126" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="8:8">
       <c r="H127" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="128" spans="8:8">
       <c r="H128" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129" spans="8:8">
       <c r="H129" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130" spans="8:8">
       <c r="H130" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="8:8">
       <c r="H131" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="132" spans="8:8">
       <c r="H132" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="133" spans="8:8">
       <c r="H133" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="134" spans="8:8">
       <c r="H134" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="135" spans="8:8">
       <c r="H135" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="136" spans="8:8">
       <c r="H136" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="137" spans="8:8">
       <c r="H137" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="138" spans="8:8">
       <c r="H138" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="139" spans="8:8">
       <c r="H139" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="140" spans="8:8">
       <c r="H140" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="141" spans="8:8">
       <c r="H141" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="142" spans="8:8">
       <c r="H142" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="143" spans="8:8">
       <c r="H143" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="144" spans="8:8">
       <c r="H144" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="145" spans="8:8">
       <c r="H145" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="146" spans="8:8">
       <c r="H146" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147" spans="8:8">
       <c r="H147" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="148" spans="8:8">
       <c r="H148" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="149" spans="8:8">
       <c r="H149" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="150" spans="8:8">
       <c r="H150" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="151" spans="8:8">
       <c r="H151" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="152" spans="8:8">
       <c r="H152" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="153" spans="8:8">
       <c r="H153" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="8:8">
       <c r="H154" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="155" spans="8:8">
       <c r="H155" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="156" spans="8:8">
       <c r="H156" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="157" spans="8:8">
       <c r="H157" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="158" spans="8:8">
       <c r="H158" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="159" spans="8:8">
       <c r="H159" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="160" spans="8:8">
       <c r="H160" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="161" spans="8:8">
       <c r="H161" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="162" spans="8:8">
       <c r="H162" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="163" spans="8:8">
       <c r="H163" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="164" spans="8:8">
       <c r="H164" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="165" spans="8:8">
       <c r="H165" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="166" spans="8:8">
       <c r="H166" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="167" spans="8:8">
       <c r="H167" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="168" spans="8:8">
       <c r="H168" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169" spans="8:8">
       <c r="H169" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="170" spans="8:8">
       <c r="H170" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="171" spans="8:8">
       <c r="H171" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="8:8">
       <c r="H172" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="173" spans="8:8">
       <c r="H173" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="8:8">
       <c r="H174" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="8:8">
       <c r="H175" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="176" spans="8:8">
       <c r="H176" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="177" spans="8:8">
       <c r="H177" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="178" spans="8:8">
       <c r="H178" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="179" spans="8:8">
       <c r="H179" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="180" spans="8:8">
       <c r="H180" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="181" spans="8:8">
       <c r="H181" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="182" spans="8:8">
       <c r="H182" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="183" spans="8:8">
       <c r="H183" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="184" spans="8:8">
       <c r="H184" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="185" spans="8:8">
       <c r="H185" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="186" spans="8:8">
       <c r="H186" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="187" spans="8:8">
       <c r="H187" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="188" spans="8:8">
       <c r="H188" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="189" spans="8:8">
       <c r="H189" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="190" spans="8:8">
       <c r="H190" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="191" spans="8:8">
       <c r="H191" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="192" spans="8:8">
       <c r="H192" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="193" spans="8:8">
       <c r="H193" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="194" spans="8:8">
       <c r="H194" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="195" spans="8:8">
       <c r="H195" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="196" spans="8:8">
       <c r="H196" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="197" spans="8:8">
       <c r="H197" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="198" spans="8:8">
       <c r="H198" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="199" spans="8:8">
       <c r="H199" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="200" spans="8:8">
       <c r="H200" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="201" spans="8:8">
       <c r="H201" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="202" spans="8:8">
       <c r="H202" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="203" spans="8:8">
       <c r="H203" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="204" spans="8:8">
       <c r="H204" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="205" spans="8:8">
       <c r="H205" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="206" spans="8:8">
       <c r="H206" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="207" spans="8:8">
       <c r="H207" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="208" spans="8:8">
       <c r="H208" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="209" spans="8:8">
       <c r="H209" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="210" spans="8:8">
       <c r="H210" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="211" spans="8:8">
       <c r="H211" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="212" spans="8:8">
       <c r="H212" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="213" spans="8:8">
       <c r="H213" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="214" spans="8:8">
       <c r="H214" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="215" spans="8:8">
       <c r="H215" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="216" spans="8:8">
       <c r="H216" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="217" spans="8:8">
       <c r="H217" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="218" spans="8:8">
       <c r="H218" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="219" spans="8:8">
       <c r="H219" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="220" spans="8:8">
       <c r="H220" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="221" spans="8:8">
       <c r="H221" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="222" spans="8:8">
       <c r="H222" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="223" spans="8:8">
       <c r="H223" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="224" spans="8:8">
       <c r="H224" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="225" spans="8:8">
       <c r="H225" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="226" spans="8:8">
       <c r="H226" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="227" spans="8:8">
       <c r="H227" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="228" spans="8:8">
       <c r="H228" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="229" spans="8:8">
       <c r="H229" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="230" spans="8:8">
       <c r="H230" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="231" spans="8:8">
       <c r="H231" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="232" spans="8:8">
       <c r="H232" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="233" spans="8:8">
       <c r="H233" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="234" spans="8:8">
       <c r="H234" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="235" spans="8:8">
       <c r="H235" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="236" spans="8:8">
       <c r="H236" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="237" spans="8:8">
       <c r="H237" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="238" spans="8:8">
       <c r="H238" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="239" spans="8:8">
       <c r="H239" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="240" spans="8:8">
       <c r="H240" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="241" spans="8:8">
       <c r="H241" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="242" spans="8:8">
       <c r="H242" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="243" spans="8:8">
       <c r="H243" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="244" spans="8:8">
       <c r="H244" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="245" spans="8:8">
       <c r="H245" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="246" spans="8:8">
       <c r="H246" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="247" spans="8:8">
       <c r="H247" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="248" spans="8:8">
       <c r="H248" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="249" spans="8:8">
       <c r="H249" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="250" spans="8:8">
       <c r="H250" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="251" spans="8:8">
       <c r="H251" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="252" spans="8:8">
       <c r="H252" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="253" spans="8:8">
       <c r="H253" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="254" spans="8:8">
       <c r="H254" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="255" spans="8:8">
       <c r="H255" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="256" spans="8:8">
       <c r="H256" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="257" spans="8:8">
       <c r="H257" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="258" spans="8:8">
       <c r="H258" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="259" spans="8:8">
       <c r="H259" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="260" spans="8:8">
       <c r="H260" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="261" spans="8:8">
       <c r="H261" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="262" spans="8:8">
       <c r="H262" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="263" spans="8:8">
       <c r="H263" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="264" spans="8:8">
       <c r="H264" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="265" spans="8:8">
       <c r="H265" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="266" spans="8:8">
       <c r="H266" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="267" spans="8:8">
       <c r="H267" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="268" spans="8:8">
       <c r="H268" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="269" spans="8:8">
       <c r="H269" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="270" spans="8:8">
       <c r="H270" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="271" spans="8:8">
       <c r="H271" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="272" spans="8:8">
       <c r="H272" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="273" spans="8:8">
       <c r="H273" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="274" spans="8:8">
       <c r="H274" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="275" spans="8:8">
       <c r="H275" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="276" spans="8:8">
       <c r="H276" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="277" spans="8:8">
       <c r="H277" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="278" spans="8:8">
       <c r="H278" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="279" spans="8:8">
       <c r="H279" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="280" spans="8:8">
       <c r="H280" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="281" spans="8:8">
       <c r="H281" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="282" spans="8:8">
       <c r="H282" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="283" spans="8:8">
       <c r="H283" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="284" spans="8:8">
       <c r="H284" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="285" spans="8:8">
       <c r="H285" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="286" spans="8:8">
       <c r="H286" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="287" spans="8:8">
       <c r="H287" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="288" spans="8:8">
       <c r="H288" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -111,7 +111,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -129,7 +129,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$H$1:$H$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="571">
   <si>
     <t>alias</t>
   </si>
@@ -849,6 +849,12 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1677,6 +1683,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1717,12 +1726,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
     <t>receipt date</t>
@@ -3286,19 +3289,19 @@
         <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>560</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="150" customHeight="1">
@@ -3324,24 +3327,24 @@
         <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>561</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3351,1450 +3354,1455 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:H288"/>
+  <dimension ref="I1:I289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="8:8">
-      <c r="H1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="8:8">
-      <c r="H2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="8:8">
-      <c r="H3" t="s">
+    <row r="1" spans="9:9">
+      <c r="I1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="8:8">
-      <c r="H4" t="s">
+    <row r="2" spans="9:9">
+      <c r="I2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="8:8">
-      <c r="H5" t="s">
+    <row r="3" spans="9:9">
+      <c r="I3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="8:8">
-      <c r="H6" t="s">
+    <row r="4" spans="9:9">
+      <c r="I4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="8:8">
-      <c r="H7" t="s">
+    <row r="5" spans="9:9">
+      <c r="I5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="8:8">
-      <c r="H8" t="s">
+    <row r="6" spans="9:9">
+      <c r="I6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="8:8">
-      <c r="H9" t="s">
+    <row r="7" spans="9:9">
+      <c r="I7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="8:8">
-      <c r="H10" t="s">
+    <row r="8" spans="9:9">
+      <c r="I8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="8:8">
-      <c r="H11" t="s">
+    <row r="9" spans="9:9">
+      <c r="I9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="8:8">
-      <c r="H12" t="s">
+    <row r="10" spans="9:9">
+      <c r="I10" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="8:8">
-      <c r="H13" t="s">
+    <row r="11" spans="9:9">
+      <c r="I11" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="8:8">
-      <c r="H14" t="s">
+    <row r="12" spans="9:9">
+      <c r="I12" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="8:8">
-      <c r="H15" t="s">
+    <row r="13" spans="9:9">
+      <c r="I13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="8:8">
-      <c r="H16" t="s">
+    <row r="14" spans="9:9">
+      <c r="I14" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="8:8">
-      <c r="H17" t="s">
+    <row r="15" spans="9:9">
+      <c r="I15" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
-      <c r="H18" t="s">
+    <row r="16" spans="9:9">
+      <c r="I16" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="8:8">
-      <c r="H19" t="s">
+    <row r="17" spans="9:9">
+      <c r="I17" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="8:8">
-      <c r="H20" t="s">
+    <row r="18" spans="9:9">
+      <c r="I18" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="8:8">
-      <c r="H21" t="s">
+    <row r="19" spans="9:9">
+      <c r="I19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="8:8">
-      <c r="H22" t="s">
+    <row r="20" spans="9:9">
+      <c r="I20" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="8:8">
-      <c r="H23" t="s">
+    <row r="21" spans="9:9">
+      <c r="I21" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="8:8">
-      <c r="H24" t="s">
+    <row r="22" spans="9:9">
+      <c r="I22" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="8:8">
-      <c r="H25" t="s">
+    <row r="23" spans="9:9">
+      <c r="I23" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="8:8">
-      <c r="H26" t="s">
+    <row r="24" spans="9:9">
+      <c r="I24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="8:8">
-      <c r="H27" t="s">
+    <row r="25" spans="9:9">
+      <c r="I25" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="8:8">
-      <c r="H28" t="s">
+    <row r="26" spans="9:9">
+      <c r="I26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="8:8">
-      <c r="H29" t="s">
+    <row r="27" spans="9:9">
+      <c r="I27" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="8:8">
-      <c r="H30" t="s">
+    <row r="28" spans="9:9">
+      <c r="I28" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="8:8">
-      <c r="H31" t="s">
+    <row r="29" spans="9:9">
+      <c r="I29" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="8:8">
-      <c r="H32" t="s">
+    <row r="30" spans="9:9">
+      <c r="I30" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="8:8">
-      <c r="H33" t="s">
+    <row r="31" spans="9:9">
+      <c r="I31" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="8:8">
-      <c r="H34" t="s">
+    <row r="32" spans="9:9">
+      <c r="I32" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="35" spans="8:8">
-      <c r="H35" t="s">
+    <row r="33" spans="9:9">
+      <c r="I33" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="8:8">
-      <c r="H36" t="s">
+    <row r="34" spans="9:9">
+      <c r="I34" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="8:8">
-      <c r="H37" t="s">
+    <row r="35" spans="9:9">
+      <c r="I35" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="38" spans="8:8">
-      <c r="H38" t="s">
+    <row r="36" spans="9:9">
+      <c r="I36" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="8:8">
-      <c r="H39" t="s">
+    <row r="37" spans="9:9">
+      <c r="I37" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="8:8">
-      <c r="H40" t="s">
+    <row r="38" spans="9:9">
+      <c r="I38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="8:8">
-      <c r="H41" t="s">
+    <row r="39" spans="9:9">
+      <c r="I39" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="42" spans="8:8">
-      <c r="H42" t="s">
+    <row r="40" spans="9:9">
+      <c r="I40" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="8:8">
-      <c r="H43" t="s">
+    <row r="41" spans="9:9">
+      <c r="I41" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="8:8">
-      <c r="H44" t="s">
+    <row r="42" spans="9:9">
+      <c r="I42" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="8:8">
-      <c r="H45" t="s">
+    <row r="43" spans="9:9">
+      <c r="I43" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="8:8">
-      <c r="H46" t="s">
+    <row r="44" spans="9:9">
+      <c r="I44" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="8:8">
-      <c r="H47" t="s">
+    <row r="45" spans="9:9">
+      <c r="I45" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="8:8">
-      <c r="H48" t="s">
+    <row r="46" spans="9:9">
+      <c r="I46" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="49" spans="8:8">
-      <c r="H49" t="s">
+    <row r="47" spans="9:9">
+      <c r="I47" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="8:8">
-      <c r="H50" t="s">
+    <row r="48" spans="9:9">
+      <c r="I48" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="8:8">
-      <c r="H51" t="s">
+    <row r="49" spans="9:9">
+      <c r="I49" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="8:8">
-      <c r="H52" t="s">
+    <row r="50" spans="9:9">
+      <c r="I50" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="8:8">
-      <c r="H53" t="s">
+    <row r="51" spans="9:9">
+      <c r="I51" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="54" spans="8:8">
-      <c r="H54" t="s">
+    <row r="52" spans="9:9">
+      <c r="I52" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="55" spans="8:8">
-      <c r="H55" t="s">
+    <row r="53" spans="9:9">
+      <c r="I53" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="8:8">
-      <c r="H56" t="s">
+    <row r="54" spans="9:9">
+      <c r="I54" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="8:8">
-      <c r="H57" t="s">
+    <row r="55" spans="9:9">
+      <c r="I55" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="8:8">
-      <c r="H58" t="s">
+    <row r="56" spans="9:9">
+      <c r="I56" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="8:8">
-      <c r="H59" t="s">
+    <row r="57" spans="9:9">
+      <c r="I57" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="8:8">
-      <c r="H60" t="s">
+    <row r="58" spans="9:9">
+      <c r="I58" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="61" spans="8:8">
-      <c r="H61" t="s">
+    <row r="59" spans="9:9">
+      <c r="I59" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="8:8">
-      <c r="H62" t="s">
+    <row r="60" spans="9:9">
+      <c r="I60" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="63" spans="8:8">
-      <c r="H63" t="s">
+    <row r="61" spans="9:9">
+      <c r="I61" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="8:8">
-      <c r="H64" t="s">
+    <row r="62" spans="9:9">
+      <c r="I62" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="8:8">
-      <c r="H65" t="s">
+    <row r="63" spans="9:9">
+      <c r="I63" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="8:8">
-      <c r="H66" t="s">
+    <row r="64" spans="9:9">
+      <c r="I64" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="67" spans="8:8">
-      <c r="H67" t="s">
+    <row r="65" spans="9:9">
+      <c r="I65" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="68" spans="8:8">
-      <c r="H68" t="s">
+    <row r="66" spans="9:9">
+      <c r="I66" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="69" spans="8:8">
-      <c r="H69" t="s">
+    <row r="67" spans="9:9">
+      <c r="I67" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="70" spans="8:8">
-      <c r="H70" t="s">
+    <row r="68" spans="9:9">
+      <c r="I68" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="71" spans="8:8">
-      <c r="H71" t="s">
+    <row r="69" spans="9:9">
+      <c r="I69" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="8:8">
-      <c r="H72" t="s">
+    <row r="70" spans="9:9">
+      <c r="I70" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="73" spans="8:8">
-      <c r="H73" t="s">
+    <row r="71" spans="9:9">
+      <c r="I71" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="74" spans="8:8">
-      <c r="H74" t="s">
+    <row r="72" spans="9:9">
+      <c r="I72" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="8:8">
-      <c r="H75" t="s">
+    <row r="73" spans="9:9">
+      <c r="I73" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="76" spans="8:8">
-      <c r="H76" t="s">
+    <row r="74" spans="9:9">
+      <c r="I74" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="77" spans="8:8">
-      <c r="H77" t="s">
+    <row r="75" spans="9:9">
+      <c r="I75" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="8:8">
-      <c r="H78" t="s">
+    <row r="76" spans="9:9">
+      <c r="I76" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="79" spans="8:8">
-      <c r="H79" t="s">
+    <row r="77" spans="9:9">
+      <c r="I77" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="8:8">
-      <c r="H80" t="s">
+    <row r="78" spans="9:9">
+      <c r="I78" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="8:8">
-      <c r="H81" t="s">
+    <row r="79" spans="9:9">
+      <c r="I79" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="8:8">
-      <c r="H82" t="s">
+    <row r="80" spans="9:9">
+      <c r="I80" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="83" spans="8:8">
-      <c r="H83" t="s">
+    <row r="81" spans="9:9">
+      <c r="I81" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="84" spans="8:8">
-      <c r="H84" t="s">
+    <row r="82" spans="9:9">
+      <c r="I82" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="85" spans="8:8">
-      <c r="H85" t="s">
+    <row r="83" spans="9:9">
+      <c r="I83" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="86" spans="8:8">
-      <c r="H86" t="s">
+    <row r="84" spans="9:9">
+      <c r="I84" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="87" spans="8:8">
-      <c r="H87" t="s">
+    <row r="85" spans="9:9">
+      <c r="I85" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="88" spans="8:8">
-      <c r="H88" t="s">
+    <row r="86" spans="9:9">
+      <c r="I86" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="89" spans="8:8">
-      <c r="H89" t="s">
+    <row r="87" spans="9:9">
+      <c r="I87" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="90" spans="8:8">
-      <c r="H90" t="s">
+    <row r="88" spans="9:9">
+      <c r="I88" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="8:8">
-      <c r="H91" t="s">
+    <row r="89" spans="9:9">
+      <c r="I89" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="8:8">
-      <c r="H92" t="s">
+    <row r="90" spans="9:9">
+      <c r="I90" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="8:8">
-      <c r="H93" t="s">
+    <row r="91" spans="9:9">
+      <c r="I91" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="94" spans="8:8">
-      <c r="H94" t="s">
+    <row r="92" spans="9:9">
+      <c r="I92" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="8:8">
-      <c r="H95" t="s">
+    <row r="93" spans="9:9">
+      <c r="I93" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="96" spans="8:8">
-      <c r="H96" t="s">
+    <row r="94" spans="9:9">
+      <c r="I94" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="8:8">
-      <c r="H97" t="s">
+    <row r="95" spans="9:9">
+      <c r="I95" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="8:8">
-      <c r="H98" t="s">
+    <row r="96" spans="9:9">
+      <c r="I96" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="99" spans="8:8">
-      <c r="H99" t="s">
+    <row r="97" spans="9:9">
+      <c r="I97" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="100" spans="8:8">
-      <c r="H100" t="s">
+    <row r="98" spans="9:9">
+      <c r="I98" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="101" spans="8:8">
-      <c r="H101" t="s">
+    <row r="99" spans="9:9">
+      <c r="I99" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="102" spans="8:8">
-      <c r="H102" t="s">
+    <row r="100" spans="9:9">
+      <c r="I100" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="103" spans="8:8">
-      <c r="H103" t="s">
+    <row r="101" spans="9:9">
+      <c r="I101" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="104" spans="8:8">
-      <c r="H104" t="s">
+    <row r="102" spans="9:9">
+      <c r="I102" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="105" spans="8:8">
-      <c r="H105" t="s">
+    <row r="103" spans="9:9">
+      <c r="I103" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="106" spans="8:8">
-      <c r="H106" t="s">
+    <row r="104" spans="9:9">
+      <c r="I104" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="107" spans="8:8">
-      <c r="H107" t="s">
+    <row r="105" spans="9:9">
+      <c r="I105" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="108" spans="8:8">
-      <c r="H108" t="s">
+    <row r="106" spans="9:9">
+      <c r="I106" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="109" spans="8:8">
-      <c r="H109" t="s">
+    <row r="107" spans="9:9">
+      <c r="I107" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="110" spans="8:8">
-      <c r="H110" t="s">
+    <row r="108" spans="9:9">
+      <c r="I108" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="111" spans="8:8">
-      <c r="H111" t="s">
+    <row r="109" spans="9:9">
+      <c r="I109" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="112" spans="8:8">
-      <c r="H112" t="s">
+    <row r="110" spans="9:9">
+      <c r="I110" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="113" spans="8:8">
-      <c r="H113" t="s">
+    <row r="111" spans="9:9">
+      <c r="I111" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="114" spans="8:8">
-      <c r="H114" t="s">
+    <row r="112" spans="9:9">
+      <c r="I112" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="115" spans="8:8">
-      <c r="H115" t="s">
+    <row r="113" spans="9:9">
+      <c r="I113" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="116" spans="8:8">
-      <c r="H116" t="s">
+    <row r="114" spans="9:9">
+      <c r="I114" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="117" spans="8:8">
-      <c r="H117" t="s">
+    <row r="115" spans="9:9">
+      <c r="I115" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="118" spans="8:8">
-      <c r="H118" t="s">
+    <row r="116" spans="9:9">
+      <c r="I116" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="119" spans="8:8">
-      <c r="H119" t="s">
+    <row r="117" spans="9:9">
+      <c r="I117" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="120" spans="8:8">
-      <c r="H120" t="s">
+    <row r="118" spans="9:9">
+      <c r="I118" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="8:8">
-      <c r="H121" t="s">
+    <row r="119" spans="9:9">
+      <c r="I119" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="122" spans="8:8">
-      <c r="H122" t="s">
+    <row r="120" spans="9:9">
+      <c r="I120" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="123" spans="8:8">
-      <c r="H123" t="s">
+    <row r="121" spans="9:9">
+      <c r="I121" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="124" spans="8:8">
-      <c r="H124" t="s">
+    <row r="122" spans="9:9">
+      <c r="I122" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="125" spans="8:8">
-      <c r="H125" t="s">
+    <row r="123" spans="9:9">
+      <c r="I123" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="126" spans="8:8">
-      <c r="H126" t="s">
+    <row r="124" spans="9:9">
+      <c r="I124" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="127" spans="8:8">
-      <c r="H127" t="s">
+    <row r="125" spans="9:9">
+      <c r="I125" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="128" spans="8:8">
-      <c r="H128" t="s">
+    <row r="126" spans="9:9">
+      <c r="I126" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="129" spans="8:8">
-      <c r="H129" t="s">
+    <row r="127" spans="9:9">
+      <c r="I127" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="130" spans="8:8">
-      <c r="H130" t="s">
+    <row r="128" spans="9:9">
+      <c r="I128" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="131" spans="8:8">
-      <c r="H131" t="s">
+    <row r="129" spans="9:9">
+      <c r="I129" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="132" spans="8:8">
-      <c r="H132" t="s">
+    <row r="130" spans="9:9">
+      <c r="I130" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="133" spans="8:8">
-      <c r="H133" t="s">
+    <row r="131" spans="9:9">
+      <c r="I131" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="134" spans="8:8">
-      <c r="H134" t="s">
+    <row r="132" spans="9:9">
+      <c r="I132" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="135" spans="8:8">
-      <c r="H135" t="s">
+    <row r="133" spans="9:9">
+      <c r="I133" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="136" spans="8:8">
-      <c r="H136" t="s">
+    <row r="134" spans="9:9">
+      <c r="I134" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="137" spans="8:8">
-      <c r="H137" t="s">
+    <row r="135" spans="9:9">
+      <c r="I135" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="138" spans="8:8">
-      <c r="H138" t="s">
+    <row r="136" spans="9:9">
+      <c r="I136" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="139" spans="8:8">
-      <c r="H139" t="s">
+    <row r="137" spans="9:9">
+      <c r="I137" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="140" spans="8:8">
-      <c r="H140" t="s">
+    <row r="138" spans="9:9">
+      <c r="I138" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="141" spans="8:8">
-      <c r="H141" t="s">
+    <row r="139" spans="9:9">
+      <c r="I139" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="142" spans="8:8">
-      <c r="H142" t="s">
+    <row r="140" spans="9:9">
+      <c r="I140" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="143" spans="8:8">
-      <c r="H143" t="s">
+    <row r="141" spans="9:9">
+      <c r="I141" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="144" spans="8:8">
-      <c r="H144" t="s">
+    <row r="142" spans="9:9">
+      <c r="I142" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="145" spans="8:8">
-      <c r="H145" t="s">
+    <row r="143" spans="9:9">
+      <c r="I143" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="146" spans="8:8">
-      <c r="H146" t="s">
+    <row r="144" spans="9:9">
+      <c r="I144" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="147" spans="8:8">
-      <c r="H147" t="s">
+    <row r="145" spans="9:9">
+      <c r="I145" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="148" spans="8:8">
-      <c r="H148" t="s">
+    <row r="146" spans="9:9">
+      <c r="I146" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="149" spans="8:8">
-      <c r="H149" t="s">
+    <row r="147" spans="9:9">
+      <c r="I147" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="150" spans="8:8">
-      <c r="H150" t="s">
+    <row r="148" spans="9:9">
+      <c r="I148" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="151" spans="8:8">
-      <c r="H151" t="s">
+    <row r="149" spans="9:9">
+      <c r="I149" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="152" spans="8:8">
-      <c r="H152" t="s">
+    <row r="150" spans="9:9">
+      <c r="I150" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="153" spans="8:8">
-      <c r="H153" t="s">
+    <row r="151" spans="9:9">
+      <c r="I151" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="154" spans="8:8">
-      <c r="H154" t="s">
+    <row r="152" spans="9:9">
+      <c r="I152" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="155" spans="8:8">
-      <c r="H155" t="s">
+    <row r="153" spans="9:9">
+      <c r="I153" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="156" spans="8:8">
-      <c r="H156" t="s">
+    <row r="154" spans="9:9">
+      <c r="I154" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="157" spans="8:8">
-      <c r="H157" t="s">
+    <row r="155" spans="9:9">
+      <c r="I155" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="8:8">
-      <c r="H158" t="s">
+    <row r="156" spans="9:9">
+      <c r="I156" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="159" spans="8:8">
-      <c r="H159" t="s">
+    <row r="157" spans="9:9">
+      <c r="I157" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="160" spans="8:8">
-      <c r="H160" t="s">
+    <row r="158" spans="9:9">
+      <c r="I158" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="161" spans="8:8">
-      <c r="H161" t="s">
+    <row r="159" spans="9:9">
+      <c r="I159" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="162" spans="8:8">
-      <c r="H162" t="s">
+    <row r="160" spans="9:9">
+      <c r="I160" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="163" spans="8:8">
-      <c r="H163" t="s">
+    <row r="161" spans="9:9">
+      <c r="I161" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="164" spans="8:8">
-      <c r="H164" t="s">
+    <row r="162" spans="9:9">
+      <c r="I162" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="165" spans="8:8">
-      <c r="H165" t="s">
+    <row r="163" spans="9:9">
+      <c r="I163" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="166" spans="8:8">
-      <c r="H166" t="s">
+    <row r="164" spans="9:9">
+      <c r="I164" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="167" spans="8:8">
-      <c r="H167" t="s">
+    <row r="165" spans="9:9">
+      <c r="I165" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="168" spans="8:8">
-      <c r="H168" t="s">
+    <row r="166" spans="9:9">
+      <c r="I166" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="169" spans="8:8">
-      <c r="H169" t="s">
+    <row r="167" spans="9:9">
+      <c r="I167" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="170" spans="8:8">
-      <c r="H170" t="s">
+    <row r="168" spans="9:9">
+      <c r="I168" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="171" spans="8:8">
-      <c r="H171" t="s">
+    <row r="169" spans="9:9">
+      <c r="I169" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="172" spans="8:8">
-      <c r="H172" t="s">
+    <row r="170" spans="9:9">
+      <c r="I170" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="173" spans="8:8">
-      <c r="H173" t="s">
+    <row r="171" spans="9:9">
+      <c r="I171" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="174" spans="8:8">
-      <c r="H174" t="s">
+    <row r="172" spans="9:9">
+      <c r="I172" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="175" spans="8:8">
-      <c r="H175" t="s">
+    <row r="173" spans="9:9">
+      <c r="I173" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="176" spans="8:8">
-      <c r="H176" t="s">
+    <row r="174" spans="9:9">
+      <c r="I174" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="177" spans="8:8">
-      <c r="H177" t="s">
+    <row r="175" spans="9:9">
+      <c r="I175" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="178" spans="8:8">
-      <c r="H178" t="s">
+    <row r="176" spans="9:9">
+      <c r="I176" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="179" spans="8:8">
-      <c r="H179" t="s">
+    <row r="177" spans="9:9">
+      <c r="I177" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="180" spans="8:8">
-      <c r="H180" t="s">
+    <row r="178" spans="9:9">
+      <c r="I178" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="181" spans="8:8">
-      <c r="H181" t="s">
+    <row r="179" spans="9:9">
+      <c r="I179" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="182" spans="8:8">
-      <c r="H182" t="s">
+    <row r="180" spans="9:9">
+      <c r="I180" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="183" spans="8:8">
-      <c r="H183" t="s">
+    <row r="181" spans="9:9">
+      <c r="I181" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="184" spans="8:8">
-      <c r="H184" t="s">
+    <row r="182" spans="9:9">
+      <c r="I182" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="185" spans="8:8">
-      <c r="H185" t="s">
+    <row r="183" spans="9:9">
+      <c r="I183" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="186" spans="8:8">
-      <c r="H186" t="s">
+    <row r="184" spans="9:9">
+      <c r="I184" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="187" spans="8:8">
-      <c r="H187" t="s">
+    <row r="185" spans="9:9">
+      <c r="I185" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="188" spans="8:8">
-      <c r="H188" t="s">
+    <row r="186" spans="9:9">
+      <c r="I186" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="189" spans="8:8">
-      <c r="H189" t="s">
+    <row r="187" spans="9:9">
+      <c r="I187" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="190" spans="8:8">
-      <c r="H190" t="s">
+    <row r="188" spans="9:9">
+      <c r="I188" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="191" spans="8:8">
-      <c r="H191" t="s">
+    <row r="189" spans="9:9">
+      <c r="I189" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="192" spans="8:8">
-      <c r="H192" t="s">
+    <row r="190" spans="9:9">
+      <c r="I190" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="193" spans="8:8">
-      <c r="H193" t="s">
+    <row r="191" spans="9:9">
+      <c r="I191" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="194" spans="8:8">
-      <c r="H194" t="s">
+    <row r="192" spans="9:9">
+      <c r="I192" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="195" spans="8:8">
-      <c r="H195" t="s">
+    <row r="193" spans="9:9">
+      <c r="I193" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="196" spans="8:8">
-      <c r="H196" t="s">
+    <row r="194" spans="9:9">
+      <c r="I194" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="197" spans="8:8">
-      <c r="H197" t="s">
+    <row r="195" spans="9:9">
+      <c r="I195" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="198" spans="8:8">
-      <c r="H198" t="s">
+    <row r="196" spans="9:9">
+      <c r="I196" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="199" spans="8:8">
-      <c r="H199" t="s">
+    <row r="197" spans="9:9">
+      <c r="I197" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="200" spans="8:8">
-      <c r="H200" t="s">
+    <row r="198" spans="9:9">
+      <c r="I198" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="201" spans="8:8">
-      <c r="H201" t="s">
+    <row r="199" spans="9:9">
+      <c r="I199" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="202" spans="8:8">
-      <c r="H202" t="s">
+    <row r="200" spans="9:9">
+      <c r="I200" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="203" spans="8:8">
-      <c r="H203" t="s">
+    <row r="201" spans="9:9">
+      <c r="I201" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="204" spans="8:8">
-      <c r="H204" t="s">
+    <row r="202" spans="9:9">
+      <c r="I202" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="205" spans="8:8">
-      <c r="H205" t="s">
+    <row r="203" spans="9:9">
+      <c r="I203" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="206" spans="8:8">
-      <c r="H206" t="s">
+    <row r="204" spans="9:9">
+      <c r="I204" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="207" spans="8:8">
-      <c r="H207" t="s">
+    <row r="205" spans="9:9">
+      <c r="I205" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="208" spans="8:8">
-      <c r="H208" t="s">
+    <row r="206" spans="9:9">
+      <c r="I206" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="209" spans="8:8">
-      <c r="H209" t="s">
+    <row r="207" spans="9:9">
+      <c r="I207" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="210" spans="8:8">
-      <c r="H210" t="s">
+    <row r="208" spans="9:9">
+      <c r="I208" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="211" spans="8:8">
-      <c r="H211" t="s">
+    <row r="209" spans="9:9">
+      <c r="I209" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="212" spans="8:8">
-      <c r="H212" t="s">
+    <row r="210" spans="9:9">
+      <c r="I210" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="213" spans="8:8">
-      <c r="H213" t="s">
+    <row r="211" spans="9:9">
+      <c r="I211" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="214" spans="8:8">
-      <c r="H214" t="s">
+    <row r="212" spans="9:9">
+      <c r="I212" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="215" spans="8:8">
-      <c r="H215" t="s">
+    <row r="213" spans="9:9">
+      <c r="I213" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="216" spans="8:8">
-      <c r="H216" t="s">
+    <row r="214" spans="9:9">
+      <c r="I214" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="217" spans="8:8">
-      <c r="H217" t="s">
+    <row r="215" spans="9:9">
+      <c r="I215" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="218" spans="8:8">
-      <c r="H218" t="s">
+    <row r="216" spans="9:9">
+      <c r="I216" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="219" spans="8:8">
-      <c r="H219" t="s">
+    <row r="217" spans="9:9">
+      <c r="I217" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="220" spans="8:8">
-      <c r="H220" t="s">
+    <row r="218" spans="9:9">
+      <c r="I218" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="221" spans="8:8">
-      <c r="H221" t="s">
+    <row r="219" spans="9:9">
+      <c r="I219" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="222" spans="8:8">
-      <c r="H222" t="s">
+    <row r="220" spans="9:9">
+      <c r="I220" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="223" spans="8:8">
-      <c r="H223" t="s">
+    <row r="221" spans="9:9">
+      <c r="I221" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="224" spans="8:8">
-      <c r="H224" t="s">
+    <row r="222" spans="9:9">
+      <c r="I222" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="225" spans="8:8">
-      <c r="H225" t="s">
+    <row r="223" spans="9:9">
+      <c r="I223" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="226" spans="8:8">
-      <c r="H226" t="s">
+    <row r="224" spans="9:9">
+      <c r="I224" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="227" spans="8:8">
-      <c r="H227" t="s">
+    <row r="225" spans="9:9">
+      <c r="I225" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="228" spans="8:8">
-      <c r="H228" t="s">
+    <row r="226" spans="9:9">
+      <c r="I226" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="229" spans="8:8">
-      <c r="H229" t="s">
+    <row r="227" spans="9:9">
+      <c r="I227" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="230" spans="8:8">
-      <c r="H230" t="s">
+    <row r="228" spans="9:9">
+      <c r="I228" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="231" spans="8:8">
-      <c r="H231" t="s">
+    <row r="229" spans="9:9">
+      <c r="I229" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="232" spans="8:8">
-      <c r="H232" t="s">
+    <row r="230" spans="9:9">
+      <c r="I230" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="233" spans="8:8">
-      <c r="H233" t="s">
+    <row r="231" spans="9:9">
+      <c r="I231" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="234" spans="8:8">
-      <c r="H234" t="s">
+    <row r="232" spans="9:9">
+      <c r="I232" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="235" spans="8:8">
-      <c r="H235" t="s">
+    <row r="233" spans="9:9">
+      <c r="I233" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="236" spans="8:8">
-      <c r="H236" t="s">
+    <row r="234" spans="9:9">
+      <c r="I234" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="237" spans="8:8">
-      <c r="H237" t="s">
+    <row r="235" spans="9:9">
+      <c r="I235" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="238" spans="8:8">
-      <c r="H238" t="s">
+    <row r="236" spans="9:9">
+      <c r="I236" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="239" spans="8:8">
-      <c r="H239" t="s">
+    <row r="237" spans="9:9">
+      <c r="I237" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="240" spans="8:8">
-      <c r="H240" t="s">
+    <row r="238" spans="9:9">
+      <c r="I238" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="241" spans="8:8">
-      <c r="H241" t="s">
+    <row r="239" spans="9:9">
+      <c r="I239" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="242" spans="8:8">
-      <c r="H242" t="s">
+    <row r="240" spans="9:9">
+      <c r="I240" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="243" spans="8:8">
-      <c r="H243" t="s">
+    <row r="241" spans="9:9">
+      <c r="I241" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="244" spans="8:8">
-      <c r="H244" t="s">
+    <row r="242" spans="9:9">
+      <c r="I242" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="245" spans="8:8">
-      <c r="H245" t="s">
+    <row r="243" spans="9:9">
+      <c r="I243" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="246" spans="8:8">
-      <c r="H246" t="s">
+    <row r="244" spans="9:9">
+      <c r="I244" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="247" spans="8:8">
-      <c r="H247" t="s">
+    <row r="245" spans="9:9">
+      <c r="I245" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="248" spans="8:8">
-      <c r="H248" t="s">
+    <row r="246" spans="9:9">
+      <c r="I246" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="249" spans="8:8">
-      <c r="H249" t="s">
+    <row r="247" spans="9:9">
+      <c r="I247" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="250" spans="8:8">
-      <c r="H250" t="s">
+    <row r="248" spans="9:9">
+      <c r="I248" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="251" spans="8:8">
-      <c r="H251" t="s">
+    <row r="249" spans="9:9">
+      <c r="I249" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="252" spans="8:8">
-      <c r="H252" t="s">
+    <row r="250" spans="9:9">
+      <c r="I250" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="253" spans="8:8">
-      <c r="H253" t="s">
+    <row r="251" spans="9:9">
+      <c r="I251" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="254" spans="8:8">
-      <c r="H254" t="s">
+    <row r="252" spans="9:9">
+      <c r="I252" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="255" spans="8:8">
-      <c r="H255" t="s">
+    <row r="253" spans="9:9">
+      <c r="I253" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="256" spans="8:8">
-      <c r="H256" t="s">
+    <row r="254" spans="9:9">
+      <c r="I254" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="257" spans="8:8">
-      <c r="H257" t="s">
+    <row r="255" spans="9:9">
+      <c r="I255" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="258" spans="8:8">
-      <c r="H258" t="s">
+    <row r="256" spans="9:9">
+      <c r="I256" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="259" spans="8:8">
-      <c r="H259" t="s">
+    <row r="257" spans="9:9">
+      <c r="I257" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="260" spans="8:8">
-      <c r="H260" t="s">
+    <row r="258" spans="9:9">
+      <c r="I258" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="261" spans="8:8">
-      <c r="H261" t="s">
+    <row r="259" spans="9:9">
+      <c r="I259" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="262" spans="8:8">
-      <c r="H262" t="s">
+    <row r="260" spans="9:9">
+      <c r="I260" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="263" spans="8:8">
-      <c r="H263" t="s">
+    <row r="261" spans="9:9">
+      <c r="I261" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="264" spans="8:8">
-      <c r="H264" t="s">
+    <row r="262" spans="9:9">
+      <c r="I262" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="265" spans="8:8">
-      <c r="H265" t="s">
+    <row r="263" spans="9:9">
+      <c r="I263" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="266" spans="8:8">
-      <c r="H266" t="s">
+    <row r="264" spans="9:9">
+      <c r="I264" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="267" spans="8:8">
-      <c r="H267" t="s">
+    <row r="265" spans="9:9">
+      <c r="I265" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="268" spans="8:8">
-      <c r="H268" t="s">
+    <row r="266" spans="9:9">
+      <c r="I266" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="269" spans="8:8">
-      <c r="H269" t="s">
+    <row r="267" spans="9:9">
+      <c r="I267" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="270" spans="8:8">
-      <c r="H270" t="s">
+    <row r="268" spans="9:9">
+      <c r="I268" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="271" spans="8:8">
-      <c r="H271" t="s">
+    <row r="269" spans="9:9">
+      <c r="I269" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="272" spans="8:8">
-      <c r="H272" t="s">
+    <row r="270" spans="9:9">
+      <c r="I270" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="273" spans="8:8">
-      <c r="H273" t="s">
+    <row r="271" spans="9:9">
+      <c r="I271" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="274" spans="8:8">
-      <c r="H274" t="s">
+    <row r="272" spans="9:9">
+      <c r="I272" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="275" spans="8:8">
-      <c r="H275" t="s">
+    <row r="273" spans="9:9">
+      <c r="I273" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="276" spans="8:8">
-      <c r="H276" t="s">
+    <row r="274" spans="9:9">
+      <c r="I274" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="277" spans="8:8">
-      <c r="H277" t="s">
+    <row r="275" spans="9:9">
+      <c r="I275" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="278" spans="8:8">
-      <c r="H278" t="s">
+    <row r="276" spans="9:9">
+      <c r="I276" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="279" spans="8:8">
-      <c r="H279" t="s">
+    <row r="277" spans="9:9">
+      <c r="I277" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="280" spans="8:8">
-      <c r="H280" t="s">
+    <row r="278" spans="9:9">
+      <c r="I278" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="281" spans="8:8">
-      <c r="H281" t="s">
+    <row r="279" spans="9:9">
+      <c r="I279" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="282" spans="8:8">
-      <c r="H282" t="s">
+    <row r="280" spans="9:9">
+      <c r="I280" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="283" spans="8:8">
-      <c r="H283" t="s">
+    <row r="281" spans="9:9">
+      <c r="I281" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="284" spans="8:8">
-      <c r="H284" t="s">
+    <row r="282" spans="9:9">
+      <c r="I282" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="285" spans="8:8">
-      <c r="H285" t="s">
+    <row r="283" spans="9:9">
+      <c r="I283" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="286" spans="8:8">
-      <c r="H286" t="s">
+    <row r="284" spans="9:9">
+      <c r="I284" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="287" spans="8:8">
-      <c r="H287" t="s">
+    <row r="285" spans="9:9">
+      <c r="I285" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="288" spans="8:8">
-      <c r="H288" t="s">
+    <row r="286" spans="9:9">
+      <c r="I286" t="s">
         <v>559</v>
+      </c>
+    </row>
+    <row r="287" spans="9:9">
+      <c r="I287" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="288" spans="9:9">
+      <c r="I288" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="289" spans="9:9">
+      <c r="I289" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="572">
   <si>
     <t>alias</t>
   </si>
@@ -634,6 +634,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2282,7 +2285,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2326,7 +2329,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2353,7 +2356,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3065,6 +3068,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3089,27 +3097,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3132,122 +3140,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3274,72 +3282,72 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -3362,1447 +3370,1447 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="9:9">
       <c r="I3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="9:9">
       <c r="I4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="9:9">
       <c r="I5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="9:9">
       <c r="I6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="9:9">
       <c r="I8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="9:9">
       <c r="I9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="9:9">
       <c r="I10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="9:9">
       <c r="I11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="9:9">
       <c r="I12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="9:9">
       <c r="I13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="9:9">
       <c r="I15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="9:9">
       <c r="I16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="9:9">
       <c r="I17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="9:9">
       <c r="I19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="9:9">
       <c r="I20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="9:9">
       <c r="I21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="9:9">
       <c r="I23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="9:9">
       <c r="I24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="9:9">
       <c r="I25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="9:9">
       <c r="I26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="9:9">
       <c r="I27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="9:9">
       <c r="I28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="9:9">
       <c r="I29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="9:9">
       <c r="I30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="9:9">
       <c r="I31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="9:9">
       <c r="I32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="9:9">
       <c r="I39" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="9:9">
       <c r="I40" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="9:9">
       <c r="I41" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="9:9">
       <c r="I47" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="9:9">
       <c r="I48" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="9:9">
       <c r="I49" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="9:9">
       <c r="I50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="9:9">
       <c r="I51" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="9:9">
       <c r="I52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="9:9">
       <c r="I53" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="9:9">
       <c r="I54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="9:9">
       <c r="I55" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="9:9">
       <c r="I56" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="9:9">
       <c r="I57" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="9:9">
       <c r="I58" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="9:9">
       <c r="I59" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="9:9">
       <c r="I60" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="9:9">
       <c r="I61" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="9:9">
       <c r="I62" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="9:9">
       <c r="I63" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="9:9">
       <c r="I64" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="9:9">
       <c r="I65" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="9:9">
       <c r="I66" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="9:9">
       <c r="I67" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="9:9">
       <c r="I68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="9:9">
       <c r="I69" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="9:9">
       <c r="I70" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="9:9">
       <c r="I71" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="9:9">
       <c r="I72" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="9:9">
       <c r="I73" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="9:9">
       <c r="I74" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="9:9">
       <c r="I75" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="9:9">
       <c r="I76" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="9:9">
       <c r="I77" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="9:9">
       <c r="I78" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="9:9">
       <c r="I79" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="9:9">
       <c r="I80" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="9:9">
       <c r="I81" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="9:9">
       <c r="I82" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="9:9">
       <c r="I83" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="9:9">
       <c r="I84" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="9:9">
       <c r="I85" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="9:9">
       <c r="I86" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="9:9">
       <c r="I87" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="9:9">
       <c r="I88" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="9:9">
       <c r="I89" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="9:9">
       <c r="I90" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="9:9">
       <c r="I91" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="9:9">
       <c r="I92" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="9:9">
       <c r="I93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="9:9">
       <c r="I94" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="9:9">
       <c r="I95" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="9:9">
       <c r="I96" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="9:9">
       <c r="I97" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="9:9">
       <c r="I98" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="9:9">
       <c r="I99" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="9:9">
       <c r="I100" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="101" spans="9:9">
       <c r="I101" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="102" spans="9:9">
       <c r="I102" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="9:9">
       <c r="I103" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="9:9">
       <c r="I104" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="9:9">
       <c r="I105" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="9:9">
       <c r="I106" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="9:9">
       <c r="I107" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="9:9">
       <c r="I108" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="9:9">
       <c r="I109" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="9:9">
       <c r="I110" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111" spans="9:9">
       <c r="I111" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="112" spans="9:9">
       <c r="I112" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="9:9">
       <c r="I113" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114" spans="9:9">
       <c r="I114" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="115" spans="9:9">
       <c r="I115" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="116" spans="9:9">
       <c r="I116" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="117" spans="9:9">
       <c r="I117" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="9:9">
       <c r="I118" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="119" spans="9:9">
       <c r="I119" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="120" spans="9:9">
       <c r="I120" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="121" spans="9:9">
       <c r="I121" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="122" spans="9:9">
       <c r="I122" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="9:9">
       <c r="I123" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="9:9">
       <c r="I124" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="125" spans="9:9">
       <c r="I125" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126" spans="9:9">
       <c r="I126" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="9:9">
       <c r="I127" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="9:9">
       <c r="I128" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="9:9">
       <c r="I129" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="130" spans="9:9">
       <c r="I130" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="131" spans="9:9">
       <c r="I131" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="132" spans="9:9">
       <c r="I132" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="133" spans="9:9">
       <c r="I133" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="134" spans="9:9">
       <c r="I134" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="135" spans="9:9">
       <c r="I135" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="136" spans="9:9">
       <c r="I136" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="137" spans="9:9">
       <c r="I137" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="138" spans="9:9">
       <c r="I138" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="139" spans="9:9">
       <c r="I139" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="140" spans="9:9">
       <c r="I140" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="141" spans="9:9">
       <c r="I141" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="142" spans="9:9">
       <c r="I142" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="143" spans="9:9">
       <c r="I143" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="144" spans="9:9">
       <c r="I144" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="145" spans="9:9">
       <c r="I145" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="146" spans="9:9">
       <c r="I146" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="147" spans="9:9">
       <c r="I147" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="148" spans="9:9">
       <c r="I148" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="149" spans="9:9">
       <c r="I149" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="150" spans="9:9">
       <c r="I150" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="151" spans="9:9">
       <c r="I151" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="9:9">
       <c r="I152" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="153" spans="9:9">
       <c r="I153" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="154" spans="9:9">
       <c r="I154" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="155" spans="9:9">
       <c r="I155" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="156" spans="9:9">
       <c r="I156" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="157" spans="9:9">
       <c r="I157" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="158" spans="9:9">
       <c r="I158" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="159" spans="9:9">
       <c r="I159" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="160" spans="9:9">
       <c r="I160" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="161" spans="9:9">
       <c r="I161" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="162" spans="9:9">
       <c r="I162" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="163" spans="9:9">
       <c r="I163" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="164" spans="9:9">
       <c r="I164" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165" spans="9:9">
       <c r="I165" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="9:9">
       <c r="I166" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="167" spans="9:9">
       <c r="I167" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="9:9">
       <c r="I168" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="9:9">
       <c r="I169" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="170" spans="9:9">
       <c r="I170" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" spans="9:9">
       <c r="I171" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="172" spans="9:9">
       <c r="I172" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="173" spans="9:9">
       <c r="I173" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="174" spans="9:9">
       <c r="I174" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="9:9">
       <c r="I175" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="176" spans="9:9">
       <c r="I176" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" spans="9:9">
       <c r="I177" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="9:9">
       <c r="I178" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="9:9">
       <c r="I179" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="9:9">
       <c r="I180" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="9:9">
       <c r="I181" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="182" spans="9:9">
       <c r="I182" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" spans="9:9">
       <c r="I183" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="184" spans="9:9">
       <c r="I184" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="185" spans="9:9">
       <c r="I185" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="186" spans="9:9">
       <c r="I186" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="187" spans="9:9">
       <c r="I187" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="188" spans="9:9">
       <c r="I188" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="189" spans="9:9">
       <c r="I189" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="190" spans="9:9">
       <c r="I190" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="191" spans="9:9">
       <c r="I191" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="9:9">
       <c r="I192" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="193" spans="9:9">
       <c r="I193" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="194" spans="9:9">
       <c r="I194" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="195" spans="9:9">
       <c r="I195" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="196" spans="9:9">
       <c r="I196" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="197" spans="9:9">
       <c r="I197" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="9:9">
       <c r="I198" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="9:9">
       <c r="I199" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="200" spans="9:9">
       <c r="I200" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="201" spans="9:9">
       <c r="I201" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="9:9">
       <c r="I202" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="203" spans="9:9">
       <c r="I203" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="204" spans="9:9">
       <c r="I204" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="205" spans="9:9">
       <c r="I205" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="9:9">
       <c r="I206" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="207" spans="9:9">
       <c r="I207" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="208" spans="9:9">
       <c r="I208" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="209" spans="9:9">
       <c r="I209" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="210" spans="9:9">
       <c r="I210" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="211" spans="9:9">
       <c r="I211" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="9:9">
       <c r="I212" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="9:9">
       <c r="I213" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="214" spans="9:9">
       <c r="I214" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="215" spans="9:9">
       <c r="I215" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="216" spans="9:9">
       <c r="I216" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="217" spans="9:9">
       <c r="I217" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="218" spans="9:9">
       <c r="I218" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="219" spans="9:9">
       <c r="I219" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="220" spans="9:9">
       <c r="I220" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="9:9">
       <c r="I221" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="222" spans="9:9">
       <c r="I222" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="9:9">
       <c r="I223" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="224" spans="9:9">
       <c r="I224" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="225" spans="9:9">
       <c r="I225" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="226" spans="9:9">
       <c r="I226" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="227" spans="9:9">
       <c r="I227" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="228" spans="9:9">
       <c r="I228" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="229" spans="9:9">
       <c r="I229" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="230" spans="9:9">
       <c r="I230" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="231" spans="9:9">
       <c r="I231" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="232" spans="9:9">
       <c r="I232" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="233" spans="9:9">
       <c r="I233" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="234" spans="9:9">
       <c r="I234" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="235" spans="9:9">
       <c r="I235" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="236" spans="9:9">
       <c r="I236" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="237" spans="9:9">
       <c r="I237" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="238" spans="9:9">
       <c r="I238" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="239" spans="9:9">
       <c r="I239" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="240" spans="9:9">
       <c r="I240" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="241" spans="9:9">
       <c r="I241" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="242" spans="9:9">
       <c r="I242" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="243" spans="9:9">
       <c r="I243" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="244" spans="9:9">
       <c r="I244" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="245" spans="9:9">
       <c r="I245" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="246" spans="9:9">
       <c r="I246" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="247" spans="9:9">
       <c r="I247" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="248" spans="9:9">
       <c r="I248" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="249" spans="9:9">
       <c r="I249" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="250" spans="9:9">
       <c r="I250" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="251" spans="9:9">
       <c r="I251" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="252" spans="9:9">
       <c r="I252" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="253" spans="9:9">
       <c r="I253" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="254" spans="9:9">
       <c r="I254" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="255" spans="9:9">
       <c r="I255" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="256" spans="9:9">
       <c r="I256" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="257" spans="9:9">
       <c r="I257" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="258" spans="9:9">
       <c r="I258" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="259" spans="9:9">
       <c r="I259" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="260" spans="9:9">
       <c r="I260" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="261" spans="9:9">
       <c r="I261" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="262" spans="9:9">
       <c r="I262" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="263" spans="9:9">
       <c r="I263" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="264" spans="9:9">
       <c r="I264" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="265" spans="9:9">
       <c r="I265" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="266" spans="9:9">
       <c r="I266" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="267" spans="9:9">
       <c r="I267" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="268" spans="9:9">
       <c r="I268" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="269" spans="9:9">
       <c r="I269" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="270" spans="9:9">
       <c r="I270" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="271" spans="9:9">
       <c r="I271" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="272" spans="9:9">
       <c r="I272" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="273" spans="9:9">
       <c r="I273" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="274" spans="9:9">
       <c r="I274" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="9:9">
       <c r="I275" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="276" spans="9:9">
       <c r="I276" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="277" spans="9:9">
       <c r="I277" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="278" spans="9:9">
       <c r="I278" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="279" spans="9:9">
       <c r="I279" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="280" spans="9:9">
       <c r="I280" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="281" spans="9:9">
       <c r="I281" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="282" spans="9:9">
       <c r="I282" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="283" spans="9:9">
       <c r="I283" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="284" spans="9:9">
       <c r="I284" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="285" spans="9:9">
       <c r="I285" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="286" spans="9:9">
       <c r="I286" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="287" spans="9:9">
       <c r="I287" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="288" spans="9:9">
       <c r="I288" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="289" spans="9:9">
       <c r="I289" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="573">
   <si>
     <t>alias</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2285,7 +2288,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2329,7 +2332,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2356,7 +2359,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3073,6 +3076,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3097,27 +3105,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3140,122 +3148,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3282,72 +3290,72 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -3370,1447 +3378,1447 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="9:9">
       <c r="I3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="9:9">
       <c r="I4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="9:9">
       <c r="I5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="9:9">
       <c r="I6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="9:9">
       <c r="I8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="9:9">
       <c r="I9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="9:9">
       <c r="I10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="9:9">
       <c r="I11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="9:9">
       <c r="I12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="9:9">
       <c r="I13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="9:9">
       <c r="I15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="9:9">
       <c r="I16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="9:9">
       <c r="I17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="9:9">
       <c r="I19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="9:9">
       <c r="I20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="9:9">
       <c r="I21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="9:9">
       <c r="I23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="9:9">
       <c r="I24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="9:9">
       <c r="I25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="9:9">
       <c r="I26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="9:9">
       <c r="I27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="9:9">
       <c r="I28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="9:9">
       <c r="I29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="9:9">
       <c r="I30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="9:9">
       <c r="I31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="9:9">
       <c r="I32" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="9:9">
       <c r="I39" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="9:9">
       <c r="I40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="9:9">
       <c r="I41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="9:9">
       <c r="I47" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="9:9">
       <c r="I48" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="9:9">
       <c r="I49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="9:9">
       <c r="I50" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="9:9">
       <c r="I51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="9:9">
       <c r="I52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="9:9">
       <c r="I53" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="9:9">
       <c r="I54" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="9:9">
       <c r="I55" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="9:9">
       <c r="I56" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="9:9">
       <c r="I57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="9:9">
       <c r="I58" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="9:9">
       <c r="I59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="9:9">
       <c r="I60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="9:9">
       <c r="I61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="9:9">
       <c r="I62" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="9:9">
       <c r="I63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="9:9">
       <c r="I64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="9:9">
       <c r="I65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="9:9">
       <c r="I66" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="9:9">
       <c r="I67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="9:9">
       <c r="I68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="9:9">
       <c r="I69" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="9:9">
       <c r="I70" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="9:9">
       <c r="I71" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="9:9">
       <c r="I72" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="9:9">
       <c r="I73" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="9:9">
       <c r="I74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="9:9">
       <c r="I75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="9:9">
       <c r="I76" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="9:9">
       <c r="I77" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="9:9">
       <c r="I78" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="9:9">
       <c r="I79" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="9:9">
       <c r="I80" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="9:9">
       <c r="I81" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="9:9">
       <c r="I82" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="9:9">
       <c r="I83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="9:9">
       <c r="I84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="9:9">
       <c r="I85" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="9:9">
       <c r="I86" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="9:9">
       <c r="I87" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="9:9">
       <c r="I88" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="9:9">
       <c r="I89" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="9:9">
       <c r="I90" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="9:9">
       <c r="I91" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="9:9">
       <c r="I92" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="9:9">
       <c r="I93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="9:9">
       <c r="I94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="9:9">
       <c r="I95" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="9:9">
       <c r="I96" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="9:9">
       <c r="I97" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="9:9">
       <c r="I98" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="9:9">
       <c r="I99" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="9:9">
       <c r="I100" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="9:9">
       <c r="I101" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="9:9">
       <c r="I102" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="9:9">
       <c r="I103" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="9:9">
       <c r="I104" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="9:9">
       <c r="I105" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="9:9">
       <c r="I106" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="9:9">
       <c r="I107" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="9:9">
       <c r="I108" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="9:9">
       <c r="I109" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110" spans="9:9">
       <c r="I110" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="9:9">
       <c r="I111" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="112" spans="9:9">
       <c r="I112" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="9:9">
       <c r="I113" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="114" spans="9:9">
       <c r="I114" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="9:9">
       <c r="I115" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" spans="9:9">
       <c r="I116" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="9:9">
       <c r="I117" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="9:9">
       <c r="I118" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="9:9">
       <c r="I119" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="9:9">
       <c r="I120" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="9:9">
       <c r="I121" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="9:9">
       <c r="I122" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="9:9">
       <c r="I123" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="9:9">
       <c r="I124" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="9:9">
       <c r="I125" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="9:9">
       <c r="I126" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="9:9">
       <c r="I127" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="9:9">
       <c r="I128" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="9:9">
       <c r="I129" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="9:9">
       <c r="I130" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="9:9">
       <c r="I131" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="9:9">
       <c r="I132" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" spans="9:9">
       <c r="I133" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="134" spans="9:9">
       <c r="I134" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="135" spans="9:9">
       <c r="I135" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="9:9">
       <c r="I136" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="137" spans="9:9">
       <c r="I137" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="9:9">
       <c r="I138" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" spans="9:9">
       <c r="I139" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="9:9">
       <c r="I140" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="9:9">
       <c r="I141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" spans="9:9">
       <c r="I142" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="9:9">
       <c r="I143" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="9:9">
       <c r="I144" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="9:9">
       <c r="I145" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="9:9">
       <c r="I146" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" spans="9:9">
       <c r="I147" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="9:9">
       <c r="I148" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" spans="9:9">
       <c r="I149" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="9:9">
       <c r="I150" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="9:9">
       <c r="I151" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="152" spans="9:9">
       <c r="I152" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="9:9">
       <c r="I153" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" spans="9:9">
       <c r="I154" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="9:9">
       <c r="I155" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" spans="9:9">
       <c r="I156" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="9:9">
       <c r="I157" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="158" spans="9:9">
       <c r="I158" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="9:9">
       <c r="I159" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="9:9">
       <c r="I160" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161" spans="9:9">
       <c r="I161" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="162" spans="9:9">
       <c r="I162" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="9:9">
       <c r="I163" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="164" spans="9:9">
       <c r="I164" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="165" spans="9:9">
       <c r="I165" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="9:9">
       <c r="I166" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="9:9">
       <c r="I167" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="9:9">
       <c r="I168" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="9:9">
       <c r="I169" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="9:9">
       <c r="I170" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="9:9">
       <c r="I171" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="172" spans="9:9">
       <c r="I172" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="9:9">
       <c r="I173" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="9:9">
       <c r="I174" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" spans="9:9">
       <c r="I175" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" spans="9:9">
       <c r="I176" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="9:9">
       <c r="I177" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="9:9">
       <c r="I178" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="9:9">
       <c r="I179" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="9:9">
       <c r="I180" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="9:9">
       <c r="I181" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" spans="9:9">
       <c r="I182" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="183" spans="9:9">
       <c r="I183" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" spans="9:9">
       <c r="I184" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" spans="9:9">
       <c r="I185" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" spans="9:9">
       <c r="I186" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="187" spans="9:9">
       <c r="I187" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="188" spans="9:9">
       <c r="I188" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="189" spans="9:9">
       <c r="I189" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="190" spans="9:9">
       <c r="I190" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="9:9">
       <c r="I191" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="192" spans="9:9">
       <c r="I192" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" spans="9:9">
       <c r="I193" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="194" spans="9:9">
       <c r="I194" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="195" spans="9:9">
       <c r="I195" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="196" spans="9:9">
       <c r="I196" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="197" spans="9:9">
       <c r="I197" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="198" spans="9:9">
       <c r="I198" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="199" spans="9:9">
       <c r="I199" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="200" spans="9:9">
       <c r="I200" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="201" spans="9:9">
       <c r="I201" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="202" spans="9:9">
       <c r="I202" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="203" spans="9:9">
       <c r="I203" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204" spans="9:9">
       <c r="I204" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="205" spans="9:9">
       <c r="I205" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="206" spans="9:9">
       <c r="I206" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="207" spans="9:9">
       <c r="I207" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="208" spans="9:9">
       <c r="I208" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="209" spans="9:9">
       <c r="I209" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="210" spans="9:9">
       <c r="I210" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="211" spans="9:9">
       <c r="I211" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="212" spans="9:9">
       <c r="I212" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="213" spans="9:9">
       <c r="I213" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="214" spans="9:9">
       <c r="I214" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="215" spans="9:9">
       <c r="I215" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="216" spans="9:9">
       <c r="I216" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="217" spans="9:9">
       <c r="I217" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="218" spans="9:9">
       <c r="I218" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="9:9">
       <c r="I219" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="9:9">
       <c r="I220" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="221" spans="9:9">
       <c r="I221" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" spans="9:9">
       <c r="I222" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="223" spans="9:9">
       <c r="I223" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="224" spans="9:9">
       <c r="I224" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" spans="9:9">
       <c r="I225" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="226" spans="9:9">
       <c r="I226" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="227" spans="9:9">
       <c r="I227" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="9:9">
       <c r="I228" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="229" spans="9:9">
       <c r="I229" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" spans="9:9">
       <c r="I230" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="231" spans="9:9">
       <c r="I231" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="232" spans="9:9">
       <c r="I232" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="233" spans="9:9">
       <c r="I233" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="234" spans="9:9">
       <c r="I234" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="235" spans="9:9">
       <c r="I235" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="236" spans="9:9">
       <c r="I236" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="237" spans="9:9">
       <c r="I237" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="238" spans="9:9">
       <c r="I238" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="239" spans="9:9">
       <c r="I239" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="240" spans="9:9">
       <c r="I240" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241" spans="9:9">
       <c r="I241" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="242" spans="9:9">
       <c r="I242" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="243" spans="9:9">
       <c r="I243" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="244" spans="9:9">
       <c r="I244" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="245" spans="9:9">
       <c r="I245" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="246" spans="9:9">
       <c r="I246" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="247" spans="9:9">
       <c r="I247" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="248" spans="9:9">
       <c r="I248" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="249" spans="9:9">
       <c r="I249" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="250" spans="9:9">
       <c r="I250" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="251" spans="9:9">
       <c r="I251" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="252" spans="9:9">
       <c r="I252" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="253" spans="9:9">
       <c r="I253" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="254" spans="9:9">
       <c r="I254" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="255" spans="9:9">
       <c r="I255" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="256" spans="9:9">
       <c r="I256" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="257" spans="9:9">
       <c r="I257" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="258" spans="9:9">
       <c r="I258" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="259" spans="9:9">
       <c r="I259" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="260" spans="9:9">
       <c r="I260" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="261" spans="9:9">
       <c r="I261" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="262" spans="9:9">
       <c r="I262" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="263" spans="9:9">
       <c r="I263" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="264" spans="9:9">
       <c r="I264" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="265" spans="9:9">
       <c r="I265" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="266" spans="9:9">
       <c r="I266" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="267" spans="9:9">
       <c r="I267" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="268" spans="9:9">
       <c r="I268" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="269" spans="9:9">
       <c r="I269" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="270" spans="9:9">
       <c r="I270" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="271" spans="9:9">
       <c r="I271" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" spans="9:9">
       <c r="I272" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="273" spans="9:9">
       <c r="I273" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="274" spans="9:9">
       <c r="I274" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="275" spans="9:9">
       <c r="I275" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="9:9">
       <c r="I276" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="277" spans="9:9">
       <c r="I277" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="278" spans="9:9">
       <c r="I278" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="279" spans="9:9">
       <c r="I279" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="280" spans="9:9">
       <c r="I280" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="281" spans="9:9">
       <c r="I281" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="282" spans="9:9">
       <c r="I282" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="283" spans="9:9">
       <c r="I283" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="284" spans="9:9">
       <c r="I284" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="285" spans="9:9">
       <c r="I285" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="286" spans="9:9">
       <c r="I286" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="287" spans="9:9">
       <c r="I287" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="288" spans="9:9">
       <c r="I288" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="289" spans="9:9">
       <c r="I289" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="574">
   <si>
     <t>alias</t>
   </si>
@@ -718,6 +718,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2288,7 +2291,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2332,7 +2335,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2359,7 +2362,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3081,6 +3084,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3105,27 +3113,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3148,122 +3156,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3290,72 +3298,72 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -3378,1447 +3386,1447 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="9:9">
       <c r="I3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="9:9">
       <c r="I4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="9:9">
       <c r="I5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="9:9">
       <c r="I6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="9:9">
       <c r="I8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="9:9">
       <c r="I9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="9:9">
       <c r="I10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="9:9">
       <c r="I11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="9:9">
       <c r="I12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="9:9">
       <c r="I13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="9:9">
       <c r="I15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="9:9">
       <c r="I16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="9:9">
       <c r="I17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="9:9">
       <c r="I19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="9:9">
       <c r="I20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="9:9">
       <c r="I21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="9:9">
       <c r="I23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="9:9">
       <c r="I24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="9:9">
       <c r="I25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="9:9">
       <c r="I26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="9:9">
       <c r="I27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="9:9">
       <c r="I28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="9:9">
       <c r="I29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="9:9">
       <c r="I30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="9:9">
       <c r="I31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="9:9">
       <c r="I32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="9:9">
       <c r="I39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="9:9">
       <c r="I40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="9:9">
       <c r="I41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="9:9">
       <c r="I47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="9:9">
       <c r="I48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="9:9">
       <c r="I49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="9:9">
       <c r="I50" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="9:9">
       <c r="I51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="9:9">
       <c r="I52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="9:9">
       <c r="I53" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="9:9">
       <c r="I54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="9:9">
       <c r="I55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="9:9">
       <c r="I56" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="9:9">
       <c r="I57" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="9:9">
       <c r="I58" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="9:9">
       <c r="I59" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="9:9">
       <c r="I60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="9:9">
       <c r="I61" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="9:9">
       <c r="I62" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="9:9">
       <c r="I63" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="9:9">
       <c r="I64" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="9:9">
       <c r="I65" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="9:9">
       <c r="I66" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="9:9">
       <c r="I67" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="9:9">
       <c r="I68" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="9:9">
       <c r="I69" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="9:9">
       <c r="I70" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="9:9">
       <c r="I71" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="9:9">
       <c r="I72" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="9:9">
       <c r="I73" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="9:9">
       <c r="I74" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="9:9">
       <c r="I75" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="9:9">
       <c r="I76" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="9:9">
       <c r="I77" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="9:9">
       <c r="I78" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="9:9">
       <c r="I79" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="9:9">
       <c r="I80" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="9:9">
       <c r="I81" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="9:9">
       <c r="I82" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" spans="9:9">
       <c r="I83" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="84" spans="9:9">
       <c r="I84" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" spans="9:9">
       <c r="I85" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="86" spans="9:9">
       <c r="I86" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="9:9">
       <c r="I87" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="88" spans="9:9">
       <c r="I88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="9:9">
       <c r="I89" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="9:9">
       <c r="I90" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="9:9">
       <c r="I91" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" spans="9:9">
       <c r="I92" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="9:9">
       <c r="I93" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="9:9">
       <c r="I94" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="9:9">
       <c r="I95" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="9:9">
       <c r="I96" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="9:9">
       <c r="I97" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="9:9">
       <c r="I98" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="9:9">
       <c r="I99" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="9:9">
       <c r="I100" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="9:9">
       <c r="I101" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="9:9">
       <c r="I102" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="9:9">
       <c r="I103" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="9:9">
       <c r="I104" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="9:9">
       <c r="I105" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="9:9">
       <c r="I106" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="9:9">
       <c r="I107" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="9:9">
       <c r="I108" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="9:9">
       <c r="I109" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="9:9">
       <c r="I110" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="111" spans="9:9">
       <c r="I111" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112" spans="9:9">
       <c r="I112" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="113" spans="9:9">
       <c r="I113" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="114" spans="9:9">
       <c r="I114" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="115" spans="9:9">
       <c r="I115" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="116" spans="9:9">
       <c r="I116" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="117" spans="9:9">
       <c r="I117" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="118" spans="9:9">
       <c r="I118" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="119" spans="9:9">
       <c r="I119" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="120" spans="9:9">
       <c r="I120" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="121" spans="9:9">
       <c r="I121" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="122" spans="9:9">
       <c r="I122" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="123" spans="9:9">
       <c r="I123" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124" spans="9:9">
       <c r="I124" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="125" spans="9:9">
       <c r="I125" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="126" spans="9:9">
       <c r="I126" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="9:9">
       <c r="I127" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128" spans="9:9">
       <c r="I128" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="129" spans="9:9">
       <c r="I129" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" spans="9:9">
       <c r="I130" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="9:9">
       <c r="I131" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="9:9">
       <c r="I132" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="9:9">
       <c r="I133" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="134" spans="9:9">
       <c r="I134" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" spans="9:9">
       <c r="I135" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="136" spans="9:9">
       <c r="I136" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="137" spans="9:9">
       <c r="I137" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="138" spans="9:9">
       <c r="I138" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="139" spans="9:9">
       <c r="I139" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="9:9">
       <c r="I140" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" spans="9:9">
       <c r="I141" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="142" spans="9:9">
       <c r="I142" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="143" spans="9:9">
       <c r="I143" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="9:9">
       <c r="I144" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="9:9">
       <c r="I145" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="146" spans="9:9">
       <c r="I146" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="147" spans="9:9">
       <c r="I147" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148" spans="9:9">
       <c r="I148" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="149" spans="9:9">
       <c r="I149" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="9:9">
       <c r="I150" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="151" spans="9:9">
       <c r="I151" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="9:9">
       <c r="I152" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="9:9">
       <c r="I153" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="9:9">
       <c r="I154" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="9:9">
       <c r="I155" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="156" spans="9:9">
       <c r="I156" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="9:9">
       <c r="I157" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="158" spans="9:9">
       <c r="I158" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="159" spans="9:9">
       <c r="I159" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="9:9">
       <c r="I160" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="161" spans="9:9">
       <c r="I161" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="162" spans="9:9">
       <c r="I162" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163" spans="9:9">
       <c r="I163" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="9:9">
       <c r="I164" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="9:9">
       <c r="I165" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="9:9">
       <c r="I166" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="9:9">
       <c r="I167" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="9:9">
       <c r="I168" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="169" spans="9:9">
       <c r="I169" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="9:9">
       <c r="I170" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="9:9">
       <c r="I171" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172" spans="9:9">
       <c r="I172" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="173" spans="9:9">
       <c r="I173" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="174" spans="9:9">
       <c r="I174" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175" spans="9:9">
       <c r="I175" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="9:9">
       <c r="I176" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="177" spans="9:9">
       <c r="I177" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" spans="9:9">
       <c r="I178" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="179" spans="9:9">
       <c r="I179" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="180" spans="9:9">
       <c r="I180" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="181" spans="9:9">
       <c r="I181" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="9:9">
       <c r="I182" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="183" spans="9:9">
       <c r="I183" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="9:9">
       <c r="I184" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="9:9">
       <c r="I185" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="186" spans="9:9">
       <c r="I186" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="187" spans="9:9">
       <c r="I187" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="188" spans="9:9">
       <c r="I188" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="189" spans="9:9">
       <c r="I189" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="190" spans="9:9">
       <c r="I190" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="191" spans="9:9">
       <c r="I191" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="192" spans="9:9">
       <c r="I192" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="193" spans="9:9">
       <c r="I193" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="194" spans="9:9">
       <c r="I194" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="195" spans="9:9">
       <c r="I195" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="196" spans="9:9">
       <c r="I196" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="197" spans="9:9">
       <c r="I197" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="198" spans="9:9">
       <c r="I198" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="199" spans="9:9">
       <c r="I199" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="200" spans="9:9">
       <c r="I200" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201" spans="9:9">
       <c r="I201" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202" spans="9:9">
       <c r="I202" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="203" spans="9:9">
       <c r="I203" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="204" spans="9:9">
       <c r="I204" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="205" spans="9:9">
       <c r="I205" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="206" spans="9:9">
       <c r="I206" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="207" spans="9:9">
       <c r="I207" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="208" spans="9:9">
       <c r="I208" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="209" spans="9:9">
       <c r="I209" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="210" spans="9:9">
       <c r="I210" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="9:9">
       <c r="I211" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="212" spans="9:9">
       <c r="I212" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="213" spans="9:9">
       <c r="I213" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="214" spans="9:9">
       <c r="I214" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="215" spans="9:9">
       <c r="I215" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="216" spans="9:9">
       <c r="I216" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="217" spans="9:9">
       <c r="I217" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="218" spans="9:9">
       <c r="I218" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="219" spans="9:9">
       <c r="I219" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="220" spans="9:9">
       <c r="I220" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="221" spans="9:9">
       <c r="I221" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="222" spans="9:9">
       <c r="I222" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="223" spans="9:9">
       <c r="I223" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" spans="9:9">
       <c r="I224" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="9:9">
       <c r="I225" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="226" spans="9:9">
       <c r="I226" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="227" spans="9:9">
       <c r="I227" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="228" spans="9:9">
       <c r="I228" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="229" spans="9:9">
       <c r="I229" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="230" spans="9:9">
       <c r="I230" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="231" spans="9:9">
       <c r="I231" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="232" spans="9:9">
       <c r="I232" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="233" spans="9:9">
       <c r="I233" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="234" spans="9:9">
       <c r="I234" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="235" spans="9:9">
       <c r="I235" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="236" spans="9:9">
       <c r="I236" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="237" spans="9:9">
       <c r="I237" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="238" spans="9:9">
       <c r="I238" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="239" spans="9:9">
       <c r="I239" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="240" spans="9:9">
       <c r="I240" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="241" spans="9:9">
       <c r="I241" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="242" spans="9:9">
       <c r="I242" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="243" spans="9:9">
       <c r="I243" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="244" spans="9:9">
       <c r="I244" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="245" spans="9:9">
       <c r="I245" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="246" spans="9:9">
       <c r="I246" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="247" spans="9:9">
       <c r="I247" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="248" spans="9:9">
       <c r="I248" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="249" spans="9:9">
       <c r="I249" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="250" spans="9:9">
       <c r="I250" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="251" spans="9:9">
       <c r="I251" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="252" spans="9:9">
       <c r="I252" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="253" spans="9:9">
       <c r="I253" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="254" spans="9:9">
       <c r="I254" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="255" spans="9:9">
       <c r="I255" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="256" spans="9:9">
       <c r="I256" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="257" spans="9:9">
       <c r="I257" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="258" spans="9:9">
       <c r="I258" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="259" spans="9:9">
       <c r="I259" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="260" spans="9:9">
       <c r="I260" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="261" spans="9:9">
       <c r="I261" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="262" spans="9:9">
       <c r="I262" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="263" spans="9:9">
       <c r="I263" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="264" spans="9:9">
       <c r="I264" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="265" spans="9:9">
       <c r="I265" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="266" spans="9:9">
       <c r="I266" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="267" spans="9:9">
       <c r="I267" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="268" spans="9:9">
       <c r="I268" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="269" spans="9:9">
       <c r="I269" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="270" spans="9:9">
       <c r="I270" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="271" spans="9:9">
       <c r="I271" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="272" spans="9:9">
       <c r="I272" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="273" spans="9:9">
       <c r="I273" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="274" spans="9:9">
       <c r="I274" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="275" spans="9:9">
       <c r="I275" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="276" spans="9:9">
       <c r="I276" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277" spans="9:9">
       <c r="I277" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="9:9">
       <c r="I278" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="279" spans="9:9">
       <c r="I279" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="280" spans="9:9">
       <c r="I280" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="281" spans="9:9">
       <c r="I281" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="282" spans="9:9">
       <c r="I282" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="283" spans="9:9">
       <c r="I283" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="284" spans="9:9">
       <c r="I284" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="285" spans="9:9">
       <c r="I285" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="286" spans="9:9">
       <c r="I286" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="287" spans="9:9">
       <c r="I287" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="288" spans="9:9">
       <c r="I288" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="289" spans="9:9">
       <c r="I289" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="575">
   <si>
     <t>alias</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2291,7 +2294,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2335,7 +2338,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2365,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3089,6 +3092,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3113,27 +3121,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3156,122 +3164,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3298,72 +3306,72 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -3386,1447 +3394,1447 @@
   <sheetData>
     <row r="1" spans="9:9">
       <c r="I1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="9:9">
       <c r="I3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="9:9">
       <c r="I4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="9:9">
       <c r="I5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="9:9">
       <c r="I6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="9:9">
       <c r="I8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="9:9">
       <c r="I9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="9:9">
       <c r="I10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="9:9">
       <c r="I11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="9:9">
       <c r="I12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="9:9">
       <c r="I13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="9:9">
       <c r="I15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="9:9">
       <c r="I16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="9:9">
       <c r="I17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="9:9">
       <c r="I19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="9:9">
       <c r="I20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="9:9">
       <c r="I21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="9:9">
       <c r="I23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="9:9">
       <c r="I24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="9:9">
       <c r="I25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="9:9">
       <c r="I26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="9:9">
       <c r="I27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="9:9">
       <c r="I28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="9:9">
       <c r="I29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="9:9">
       <c r="I30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="9:9">
       <c r="I31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="9:9">
       <c r="I32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="9:9">
       <c r="I39" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="9:9">
       <c r="I40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="9:9">
       <c r="I41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="9:9">
       <c r="I47" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="9:9">
       <c r="I48" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="9:9">
       <c r="I49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="9:9">
       <c r="I50" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="9:9">
       <c r="I51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="9:9">
       <c r="I52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="9:9">
       <c r="I53" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="9:9">
       <c r="I54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="9:9">
       <c r="I55" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="9:9">
       <c r="I56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="9:9">
       <c r="I57" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="9:9">
       <c r="I58" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="9:9">
       <c r="I59" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="9:9">
       <c r="I60" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="9:9">
       <c r="I61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="9:9">
       <c r="I62" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="9:9">
       <c r="I63" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="9:9">
       <c r="I64" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="9:9">
       <c r="I65" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="9:9">
       <c r="I66" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="9:9">
       <c r="I67" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="9:9">
       <c r="I68" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="9:9">
       <c r="I69" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="9:9">
       <c r="I70" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="9:9">
       <c r="I71" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="9:9">
       <c r="I72" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="9:9">
       <c r="I73" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="9:9">
       <c r="I74" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="9:9">
       <c r="I75" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="9:9">
       <c r="I76" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="9:9">
       <c r="I77" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="9:9">
       <c r="I78" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="9:9">
       <c r="I79" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="9:9">
       <c r="I80" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="9:9">
       <c r="I81" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="9:9">
       <c r="I82" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="9:9">
       <c r="I83" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="9:9">
       <c r="I84" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="9:9">
       <c r="I85" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="9:9">
       <c r="I86" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="9:9">
       <c r="I87" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="9:9">
       <c r="I88" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="9:9">
       <c r="I89" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="9:9">
       <c r="I90" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="9:9">
       <c r="I91" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="9:9">
       <c r="I92" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="93" spans="9:9">
       <c r="I93" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="9:9">
       <c r="I94" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="9:9">
       <c r="I95" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="9:9">
       <c r="I96" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="9:9">
       <c r="I97" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="9:9">
       <c r="I98" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="9:9">
       <c r="I99" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="9:9">
       <c r="I100" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="9:9">
       <c r="I101" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="9:9">
       <c r="I102" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="9:9">
       <c r="I103" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="9:9">
       <c r="I104" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105" spans="9:9">
       <c r="I105" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="9:9">
       <c r="I106" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="9:9">
       <c r="I107" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" spans="9:9">
       <c r="I108" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="109" spans="9:9">
       <c r="I109" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="110" spans="9:9">
       <c r="I110" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="9:9">
       <c r="I111" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="112" spans="9:9">
       <c r="I112" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="9:9">
       <c r="I113" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="9:9">
       <c r="I114" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="9:9">
       <c r="I115" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="116" spans="9:9">
       <c r="I116" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="117" spans="9:9">
       <c r="I117" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="9:9">
       <c r="I118" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="119" spans="9:9">
       <c r="I119" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="120" spans="9:9">
       <c r="I120" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="9:9">
       <c r="I121" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="9:9">
       <c r="I122" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" spans="9:9">
       <c r="I123" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="9:9">
       <c r="I124" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="9:9">
       <c r="I125" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="9:9">
       <c r="I126" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="127" spans="9:9">
       <c r="I127" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="128" spans="9:9">
       <c r="I128" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" spans="9:9">
       <c r="I129" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="9:9">
       <c r="I130" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="9:9">
       <c r="I131" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="9:9">
       <c r="I132" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="133" spans="9:9">
       <c r="I133" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="134" spans="9:9">
       <c r="I134" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="135" spans="9:9">
       <c r="I135" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="9:9">
       <c r="I136" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137" spans="9:9">
       <c r="I137" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="138" spans="9:9">
       <c r="I138" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="9:9">
       <c r="I139" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="140" spans="9:9">
       <c r="I140" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141" spans="9:9">
       <c r="I141" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="9:9">
       <c r="I142" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="9:9">
       <c r="I143" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" spans="9:9">
       <c r="I144" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="9:9">
       <c r="I145" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="9:9">
       <c r="I146" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="9:9">
       <c r="I147" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="9:9">
       <c r="I148" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="9:9">
       <c r="I149" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="9:9">
       <c r="I150" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="151" spans="9:9">
       <c r="I151" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="152" spans="9:9">
       <c r="I152" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="153" spans="9:9">
       <c r="I153" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="154" spans="9:9">
       <c r="I154" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="155" spans="9:9">
       <c r="I155" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" spans="9:9">
       <c r="I156" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="157" spans="9:9">
       <c r="I157" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="9:9">
       <c r="I158" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="9:9">
       <c r="I159" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="160" spans="9:9">
       <c r="I160" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="161" spans="9:9">
       <c r="I161" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="162" spans="9:9">
       <c r="I162" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="163" spans="9:9">
       <c r="I163" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="164" spans="9:9">
       <c r="I164" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="165" spans="9:9">
       <c r="I165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="9:9">
       <c r="I166" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="167" spans="9:9">
       <c r="I167" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="168" spans="9:9">
       <c r="I168" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="169" spans="9:9">
       <c r="I169" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="170" spans="9:9">
       <c r="I170" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="171" spans="9:9">
       <c r="I171" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="9:9">
       <c r="I172" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="173" spans="9:9">
       <c r="I173" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="174" spans="9:9">
       <c r="I174" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="9:9">
       <c r="I175" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="9:9">
       <c r="I176" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="9:9">
       <c r="I177" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="178" spans="9:9">
       <c r="I178" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="179" spans="9:9">
       <c r="I179" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="180" spans="9:9">
       <c r="I180" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="181" spans="9:9">
       <c r="I181" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="182" spans="9:9">
       <c r="I182" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="183" spans="9:9">
       <c r="I183" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="184" spans="9:9">
       <c r="I184" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="185" spans="9:9">
       <c r="I185" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="186" spans="9:9">
       <c r="I186" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="187" spans="9:9">
       <c r="I187" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="188" spans="9:9">
       <c r="I188" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="9:9">
       <c r="I189" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="190" spans="9:9">
       <c r="I190" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="191" spans="9:9">
       <c r="I191" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="192" spans="9:9">
       <c r="I192" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="193" spans="9:9">
       <c r="I193" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="194" spans="9:9">
       <c r="I194" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="195" spans="9:9">
       <c r="I195" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="196" spans="9:9">
       <c r="I196" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="197" spans="9:9">
       <c r="I197" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="198" spans="9:9">
       <c r="I198" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="199" spans="9:9">
       <c r="I199" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="200" spans="9:9">
       <c r="I200" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="201" spans="9:9">
       <c r="I201" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="202" spans="9:9">
       <c r="I202" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="203" spans="9:9">
       <c r="I203" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="204" spans="9:9">
       <c r="I204" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="205" spans="9:9">
       <c r="I205" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="206" spans="9:9">
       <c r="I206" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="207" spans="9:9">
       <c r="I207" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="208" spans="9:9">
       <c r="I208" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="209" spans="9:9">
       <c r="I209" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="210" spans="9:9">
       <c r="I210" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="211" spans="9:9">
       <c r="I211" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="212" spans="9:9">
       <c r="I212" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="213" spans="9:9">
       <c r="I213" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="214" spans="9:9">
       <c r="I214" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="215" spans="9:9">
       <c r="I215" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="216" spans="9:9">
       <c r="I216" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="217" spans="9:9">
       <c r="I217" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="9:9">
       <c r="I218" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="219" spans="9:9">
       <c r="I219" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="9:9">
       <c r="I220" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="221" spans="9:9">
       <c r="I221" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="222" spans="9:9">
       <c r="I222" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="223" spans="9:9">
       <c r="I223" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="224" spans="9:9">
       <c r="I224" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="225" spans="9:9">
       <c r="I225" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="226" spans="9:9">
       <c r="I226" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="227" spans="9:9">
       <c r="I227" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="228" spans="9:9">
       <c r="I228" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="9:9">
       <c r="I229" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="230" spans="9:9">
       <c r="I230" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="231" spans="9:9">
       <c r="I231" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="232" spans="9:9">
       <c r="I232" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="233" spans="9:9">
       <c r="I233" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="234" spans="9:9">
       <c r="I234" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="235" spans="9:9">
       <c r="I235" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="236" spans="9:9">
       <c r="I236" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="237" spans="9:9">
       <c r="I237" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="238" spans="9:9">
       <c r="I238" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="239" spans="9:9">
       <c r="I239" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="240" spans="9:9">
       <c r="I240" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="241" spans="9:9">
       <c r="I241" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="242" spans="9:9">
       <c r="I242" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="243" spans="9:9">
       <c r="I243" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="244" spans="9:9">
       <c r="I244" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="245" spans="9:9">
       <c r="I245" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="246" spans="9:9">
       <c r="I246" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="247" spans="9:9">
       <c r="I247" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="248" spans="9:9">
       <c r="I248" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="249" spans="9:9">
       <c r="I249" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="250" spans="9:9">
       <c r="I250" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="251" spans="9:9">
       <c r="I251" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="252" spans="9:9">
       <c r="I252" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="253" spans="9:9">
       <c r="I253" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="254" spans="9:9">
       <c r="I254" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="255" spans="9:9">
       <c r="I255" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="256" spans="9:9">
       <c r="I256" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="257" spans="9:9">
       <c r="I257" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="258" spans="9:9">
       <c r="I258" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="259" spans="9:9">
       <c r="I259" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="260" spans="9:9">
       <c r="I260" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="261" spans="9:9">
       <c r="I261" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="9:9">
       <c r="I262" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="263" spans="9:9">
       <c r="I263" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="264" spans="9:9">
       <c r="I264" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="265" spans="9:9">
       <c r="I265" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="266" spans="9:9">
       <c r="I266" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="267" spans="9:9">
       <c r="I267" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="268" spans="9:9">
       <c r="I268" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="269" spans="9:9">
       <c r="I269" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="270" spans="9:9">
       <c r="I270" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="271" spans="9:9">
       <c r="I271" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="272" spans="9:9">
       <c r="I272" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="273" spans="9:9">
       <c r="I273" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="274" spans="9:9">
       <c r="I274" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="275" spans="9:9">
       <c r="I275" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="276" spans="9:9">
       <c r="I276" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="277" spans="9:9">
       <c r="I277" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="278" spans="9:9">
       <c r="I278" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="279" spans="9:9">
       <c r="I279" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="280" spans="9:9">
       <c r="I280" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="281" spans="9:9">
       <c r="I281" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="282" spans="9:9">
       <c r="I282" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="283" spans="9:9">
       <c r="I283" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="284" spans="9:9">
       <c r="I284" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="285" spans="9:9">
       <c r="I285" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="286" spans="9:9">
       <c r="I286" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="287" spans="9:9">
       <c r="I287" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="288" spans="9:9">
       <c r="I288" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="289" spans="9:9">
       <c r="I289" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="580">
   <si>
     <t>alias</t>
   </si>
@@ -855,13 +855,13 @@
     <t>(Optional) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
@@ -1080,9 +1080,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1101,6 +1098,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1302,6 +1302,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1311,9 +1314,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1353,7 +1353,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1422,6 +1422,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1497,6 +1500,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1518,6 +1524,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1563,6 +1572,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1575,6 +1587,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1584,9 +1599,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1611,6 +1623,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1671,12 +1686,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1734,13 +1749,13 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>receipt date</t>
+    <t>receipt_date</t>
   </si>
   <si>
     <t>(Recommended) Date on which the sample was received. format:yyyy-mm-dd. please provide the highest precision possible. if the sample was received by the institution and not collected, the 'receipt date' must be provided instead. either the 'collection date' or 'receipt date' must be provided. if available, provide both dates.</t>
@@ -3324,16 +3339,16 @@
         <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="150" customHeight="1">
@@ -3362,16 +3377,16 @@
         <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -3386,7 +3401,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:I289"/>
+  <dimension ref="I1:I294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4837,6 +4852,31 @@
         <v>566</v>
       </c>
     </row>
+    <row r="290" spans="9:9">
+      <c r="I290" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="291" spans="9:9">
+      <c r="I291" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="292" spans="9:9">
+      <c r="I292" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="293" spans="9:9">
+      <c r="I293" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="294" spans="9:9">
+      <c r="I294" t="s">
+        <v>571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="575">
   <si>
     <t>alias</t>
   </si>
@@ -855,13 +855,13 @@
     <t>(Optional) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
@@ -1080,6 +1080,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1098,9 +1101,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1302,9 +1302,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1314,6 +1311,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1353,7 +1353,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1422,9 +1422,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1500,9 +1497,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1524,9 +1518,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1572,9 +1563,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1587,9 +1575,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1599,6 +1584,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1623,9 +1611,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1686,12 +1671,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1749,13 +1734,13 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>receipt_date</t>
+    <t>receipt date</t>
   </si>
   <si>
     <t>(Recommended) Date on which the sample was received. format:yyyy-mm-dd. please provide the highest precision possible. if the sample was received by the institution and not collected, the 'receipt date' must be provided instead. either the 'collection date' or 'receipt date' must be provided. if available, provide both dates.</t>
@@ -3339,16 +3324,16 @@
         <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="150" customHeight="1">
@@ -3377,16 +3362,16 @@
         <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -3401,7 +3386,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:I294"/>
+  <dimension ref="I1:I289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4852,31 +4837,6 @@
         <v>566</v>
       </c>
     </row>
-    <row r="290" spans="9:9">
-      <c r="I290" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="291" spans="9:9">
-      <c r="I291" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="292" spans="9:9">
-      <c r="I292" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="293" spans="9:9">
-      <c r="I293" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="294" spans="9:9">
-      <c r="I294" t="s">
-        <v>571</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$I$1:$I$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="579">
   <si>
     <t>alias</t>
   </si>
@@ -835,6 +835,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3289,7 +3301,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3298,7 +3310,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3324,10 +3336,10 @@
         <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>567</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>569</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>571</v>
@@ -3335,8 +3347,14 @@
       <c r="L1" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="150" customHeight="1">
+      <c r="M1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3362,10 +3380,10 @@
         <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>568</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>570</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>572</v>
@@ -3373,10 +3391,16 @@
       <c r="L2" s="2" t="s">
         <v>574</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>578</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -3386,1455 +3410,1455 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:I289"/>
+  <dimension ref="K1:K289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="9:9">
-      <c r="I1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="9:9">
-      <c r="I2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="9:9">
-      <c r="I3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="9:9">
-      <c r="I4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="9:9">
-      <c r="I5" t="s">
+    <row r="1" spans="11:11">
+      <c r="K1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="9:9">
-      <c r="I6" t="s">
+    <row r="2" spans="11:11">
+      <c r="K2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="9:9">
-      <c r="I7" t="s">
+    <row r="3" spans="11:11">
+      <c r="K3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="9:9">
-      <c r="I8" t="s">
+    <row r="4" spans="11:11">
+      <c r="K4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="9:9">
-      <c r="I9" t="s">
+    <row r="5" spans="11:11">
+      <c r="K5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="9:9">
-      <c r="I10" t="s">
+    <row r="6" spans="11:11">
+      <c r="K6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="9:9">
-      <c r="I11" t="s">
+    <row r="7" spans="11:11">
+      <c r="K7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="9:9">
-      <c r="I12" t="s">
+    <row r="8" spans="11:11">
+      <c r="K8" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="9:9">
-      <c r="I13" t="s">
+    <row r="9" spans="11:11">
+      <c r="K9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="9:9">
-      <c r="I14" t="s">
+    <row r="10" spans="11:11">
+      <c r="K10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="9:9">
-      <c r="I15" t="s">
+    <row r="11" spans="11:11">
+      <c r="K11" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="9:9">
-      <c r="I16" t="s">
+    <row r="12" spans="11:11">
+      <c r="K12" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="9:9">
-      <c r="I17" t="s">
+    <row r="13" spans="11:11">
+      <c r="K13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="9:9">
-      <c r="I18" t="s">
+    <row r="14" spans="11:11">
+      <c r="K14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="9:9">
-      <c r="I19" t="s">
+    <row r="15" spans="11:11">
+      <c r="K15" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="9:9">
-      <c r="I20" t="s">
+    <row r="16" spans="11:11">
+      <c r="K16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="9:9">
-      <c r="I21" t="s">
+    <row r="17" spans="11:11">
+      <c r="K17" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="9:9">
-      <c r="I22" t="s">
+    <row r="18" spans="11:11">
+      <c r="K18" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="9:9">
-      <c r="I23" t="s">
+    <row r="19" spans="11:11">
+      <c r="K19" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="9:9">
-      <c r="I24" t="s">
+    <row r="20" spans="11:11">
+      <c r="K20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="9:9">
-      <c r="I25" t="s">
+    <row r="21" spans="11:11">
+      <c r="K21" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="9:9">
-      <c r="I26" t="s">
+    <row r="22" spans="11:11">
+      <c r="K22" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="9:9">
-      <c r="I27" t="s">
+    <row r="23" spans="11:11">
+      <c r="K23" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="9:9">
-      <c r="I28" t="s">
+    <row r="24" spans="11:11">
+      <c r="K24" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="9:9">
-      <c r="I29" t="s">
+    <row r="25" spans="11:11">
+      <c r="K25" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="9:9">
-      <c r="I30" t="s">
+    <row r="26" spans="11:11">
+      <c r="K26" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="9:9">
-      <c r="I31" t="s">
+    <row r="27" spans="11:11">
+      <c r="K27" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="9:9">
-      <c r="I32" t="s">
+    <row r="28" spans="11:11">
+      <c r="K28" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="9:9">
-      <c r="I33" t="s">
+    <row r="29" spans="11:11">
+      <c r="K29" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="9:9">
-      <c r="I34" t="s">
+    <row r="30" spans="11:11">
+      <c r="K30" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="9:9">
-      <c r="I35" t="s">
+    <row r="31" spans="11:11">
+      <c r="K31" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="9:9">
-      <c r="I36" t="s">
+    <row r="32" spans="11:11">
+      <c r="K32" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="9:9">
-      <c r="I37" t="s">
+    <row r="33" spans="11:11">
+      <c r="K33" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="9:9">
-      <c r="I38" t="s">
+    <row r="34" spans="11:11">
+      <c r="K34" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="9:9">
-      <c r="I39" t="s">
+    <row r="35" spans="11:11">
+      <c r="K35" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="9:9">
-      <c r="I40" t="s">
+    <row r="36" spans="11:11">
+      <c r="K36" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="41" spans="9:9">
-      <c r="I41" t="s">
+    <row r="37" spans="11:11">
+      <c r="K37" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="9:9">
-      <c r="I42" t="s">
+    <row r="38" spans="11:11">
+      <c r="K38" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="9:9">
-      <c r="I43" t="s">
+    <row r="39" spans="11:11">
+      <c r="K39" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="9:9">
-      <c r="I44" t="s">
+    <row r="40" spans="11:11">
+      <c r="K40" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="9:9">
-      <c r="I45" t="s">
+    <row r="41" spans="11:11">
+      <c r="K41" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="46" spans="9:9">
-      <c r="I46" t="s">
+    <row r="42" spans="11:11">
+      <c r="K42" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="9:9">
-      <c r="I47" t="s">
+    <row r="43" spans="11:11">
+      <c r="K43" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="9:9">
-      <c r="I48" t="s">
+    <row r="44" spans="11:11">
+      <c r="K44" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="9:9">
-      <c r="I49" t="s">
+    <row r="45" spans="11:11">
+      <c r="K45" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="50" spans="9:9">
-      <c r="I50" t="s">
+    <row r="46" spans="11:11">
+      <c r="K46" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="9:9">
-      <c r="I51" t="s">
+    <row r="47" spans="11:11">
+      <c r="K47" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="52" spans="9:9">
-      <c r="I52" t="s">
+    <row r="48" spans="11:11">
+      <c r="K48" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="9:9">
-      <c r="I53" t="s">
+    <row r="49" spans="11:11">
+      <c r="K49" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="54" spans="9:9">
-      <c r="I54" t="s">
+    <row r="50" spans="11:11">
+      <c r="K50" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="55" spans="9:9">
-      <c r="I55" t="s">
+    <row r="51" spans="11:11">
+      <c r="K51" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="9:9">
-      <c r="I56" t="s">
+    <row r="52" spans="11:11">
+      <c r="K52" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="9:9">
-      <c r="I57" t="s">
+    <row r="53" spans="11:11">
+      <c r="K53" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="9:9">
-      <c r="I58" t="s">
+    <row r="54" spans="11:11">
+      <c r="K54" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="9:9">
-      <c r="I59" t="s">
+    <row r="55" spans="11:11">
+      <c r="K55" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="9:9">
-      <c r="I60" t="s">
+    <row r="56" spans="11:11">
+      <c r="K56" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="9:9">
-      <c r="I61" t="s">
+    <row r="57" spans="11:11">
+      <c r="K57" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="9:9">
-      <c r="I62" t="s">
+    <row r="58" spans="11:11">
+      <c r="K58" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="9:9">
-      <c r="I63" t="s">
+    <row r="59" spans="11:11">
+      <c r="K59" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="64" spans="9:9">
-      <c r="I64" t="s">
+    <row r="60" spans="11:11">
+      <c r="K60" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="9:9">
-      <c r="I65" t="s">
+    <row r="61" spans="11:11">
+      <c r="K61" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="66" spans="9:9">
-      <c r="I66" t="s">
+    <row r="62" spans="11:11">
+      <c r="K62" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="67" spans="9:9">
-      <c r="I67" t="s">
+    <row r="63" spans="11:11">
+      <c r="K63" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="68" spans="9:9">
-      <c r="I68" t="s">
+    <row r="64" spans="11:11">
+      <c r="K64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="9:9">
-      <c r="I69" t="s">
+    <row r="65" spans="11:11">
+      <c r="K65" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="9:9">
-      <c r="I70" t="s">
+    <row r="66" spans="11:11">
+      <c r="K66" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="9:9">
-      <c r="I71" t="s">
+    <row r="67" spans="11:11">
+      <c r="K67" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="72" spans="9:9">
-      <c r="I72" t="s">
+    <row r="68" spans="11:11">
+      <c r="K68" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="73" spans="9:9">
-      <c r="I73" t="s">
+    <row r="69" spans="11:11">
+      <c r="K69" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="9:9">
-      <c r="I74" t="s">
+    <row r="70" spans="11:11">
+      <c r="K70" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="9:9">
-      <c r="I75" t="s">
+    <row r="71" spans="11:11">
+      <c r="K71" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="9:9">
-      <c r="I76" t="s">
+    <row r="72" spans="11:11">
+      <c r="K72" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="9:9">
-      <c r="I77" t="s">
+    <row r="73" spans="11:11">
+      <c r="K73" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="78" spans="9:9">
-      <c r="I78" t="s">
+    <row r="74" spans="11:11">
+      <c r="K74" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="9:9">
-      <c r="I79" t="s">
+    <row r="75" spans="11:11">
+      <c r="K75" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="80" spans="9:9">
-      <c r="I80" t="s">
+    <row r="76" spans="11:11">
+      <c r="K76" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="9:9">
-      <c r="I81" t="s">
+    <row r="77" spans="11:11">
+      <c r="K77" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="9:9">
-      <c r="I82" t="s">
+    <row r="78" spans="11:11">
+      <c r="K78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="83" spans="9:9">
-      <c r="I83" t="s">
+    <row r="79" spans="11:11">
+      <c r="K79" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="9:9">
-      <c r="I84" t="s">
+    <row r="80" spans="11:11">
+      <c r="K80" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="85" spans="9:9">
-      <c r="I85" t="s">
+    <row r="81" spans="11:11">
+      <c r="K81" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="86" spans="9:9">
-      <c r="I86" t="s">
+    <row r="82" spans="11:11">
+      <c r="K82" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="87" spans="9:9">
-      <c r="I87" t="s">
+    <row r="83" spans="11:11">
+      <c r="K83" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="9:9">
-      <c r="I88" t="s">
+    <row r="84" spans="11:11">
+      <c r="K84" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="89" spans="9:9">
-      <c r="I89" t="s">
+    <row r="85" spans="11:11">
+      <c r="K85" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="90" spans="9:9">
-      <c r="I90" t="s">
+    <row r="86" spans="11:11">
+      <c r="K86" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="91" spans="9:9">
-      <c r="I91" t="s">
+    <row r="87" spans="11:11">
+      <c r="K87" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="9:9">
-      <c r="I92" t="s">
+    <row r="88" spans="11:11">
+      <c r="K88" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="9:9">
-      <c r="I93" t="s">
+    <row r="89" spans="11:11">
+      <c r="K89" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="94" spans="9:9">
-      <c r="I94" t="s">
+    <row r="90" spans="11:11">
+      <c r="K90" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="9:9">
-      <c r="I95" t="s">
+    <row r="91" spans="11:11">
+      <c r="K91" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="96" spans="9:9">
-      <c r="I96" t="s">
+    <row r="92" spans="11:11">
+      <c r="K92" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="97" spans="9:9">
-      <c r="I97" t="s">
+    <row r="93" spans="11:11">
+      <c r="K93" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="98" spans="9:9">
-      <c r="I98" t="s">
+    <row r="94" spans="11:11">
+      <c r="K94" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="99" spans="9:9">
-      <c r="I99" t="s">
+    <row r="95" spans="11:11">
+      <c r="K95" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="100" spans="9:9">
-      <c r="I100" t="s">
+    <row r="96" spans="11:11">
+      <c r="K96" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="101" spans="9:9">
-      <c r="I101" t="s">
+    <row r="97" spans="11:11">
+      <c r="K97" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="102" spans="9:9">
-      <c r="I102" t="s">
+    <row r="98" spans="11:11">
+      <c r="K98" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="103" spans="9:9">
-      <c r="I103" t="s">
+    <row r="99" spans="11:11">
+      <c r="K99" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="104" spans="9:9">
-      <c r="I104" t="s">
+    <row r="100" spans="11:11">
+      <c r="K100" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="105" spans="9:9">
-      <c r="I105" t="s">
+    <row r="101" spans="11:11">
+      <c r="K101" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="106" spans="9:9">
-      <c r="I106" t="s">
+    <row r="102" spans="11:11">
+      <c r="K102" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="107" spans="9:9">
-      <c r="I107" t="s">
+    <row r="103" spans="11:11">
+      <c r="K103" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="108" spans="9:9">
-      <c r="I108" t="s">
+    <row r="104" spans="11:11">
+      <c r="K104" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="109" spans="9:9">
-      <c r="I109" t="s">
+    <row r="105" spans="11:11">
+      <c r="K105" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="110" spans="9:9">
-      <c r="I110" t="s">
+    <row r="106" spans="11:11">
+      <c r="K106" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="111" spans="9:9">
-      <c r="I111" t="s">
+    <row r="107" spans="11:11">
+      <c r="K107" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="112" spans="9:9">
-      <c r="I112" t="s">
+    <row r="108" spans="11:11">
+      <c r="K108" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="113" spans="9:9">
-      <c r="I113" t="s">
+    <row r="109" spans="11:11">
+      <c r="K109" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="114" spans="9:9">
-      <c r="I114" t="s">
+    <row r="110" spans="11:11">
+      <c r="K110" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="115" spans="9:9">
-      <c r="I115" t="s">
+    <row r="111" spans="11:11">
+      <c r="K111" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="116" spans="9:9">
-      <c r="I116" t="s">
+    <row r="112" spans="11:11">
+      <c r="K112" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="117" spans="9:9">
-      <c r="I117" t="s">
+    <row r="113" spans="11:11">
+      <c r="K113" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="118" spans="9:9">
-      <c r="I118" t="s">
+    <row r="114" spans="11:11">
+      <c r="K114" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="119" spans="9:9">
-      <c r="I119" t="s">
+    <row r="115" spans="11:11">
+      <c r="K115" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="120" spans="9:9">
-      <c r="I120" t="s">
+    <row r="116" spans="11:11">
+      <c r="K116" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="121" spans="9:9">
-      <c r="I121" t="s">
+    <row r="117" spans="11:11">
+      <c r="K117" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="122" spans="9:9">
-      <c r="I122" t="s">
+    <row r="118" spans="11:11">
+      <c r="K118" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="123" spans="9:9">
-      <c r="I123" t="s">
+    <row r="119" spans="11:11">
+      <c r="K119" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="9:9">
-      <c r="I124" t="s">
+    <row r="120" spans="11:11">
+      <c r="K120" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="9:9">
-      <c r="I125" t="s">
+    <row r="121" spans="11:11">
+      <c r="K121" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="126" spans="9:9">
-      <c r="I126" t="s">
+    <row r="122" spans="11:11">
+      <c r="K122" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="127" spans="9:9">
-      <c r="I127" t="s">
+    <row r="123" spans="11:11">
+      <c r="K123" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="128" spans="9:9">
-      <c r="I128" t="s">
+    <row r="124" spans="11:11">
+      <c r="K124" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="129" spans="9:9">
-      <c r="I129" t="s">
+    <row r="125" spans="11:11">
+      <c r="K125" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="130" spans="9:9">
-      <c r="I130" t="s">
+    <row r="126" spans="11:11">
+      <c r="K126" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="131" spans="9:9">
-      <c r="I131" t="s">
+    <row r="127" spans="11:11">
+      <c r="K127" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="132" spans="9:9">
-      <c r="I132" t="s">
+    <row r="128" spans="11:11">
+      <c r="K128" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="133" spans="9:9">
-      <c r="I133" t="s">
+    <row r="129" spans="11:11">
+      <c r="K129" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="134" spans="9:9">
-      <c r="I134" t="s">
+    <row r="130" spans="11:11">
+      <c r="K130" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="135" spans="9:9">
-      <c r="I135" t="s">
+    <row r="131" spans="11:11">
+      <c r="K131" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="136" spans="9:9">
-      <c r="I136" t="s">
+    <row r="132" spans="11:11">
+      <c r="K132" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="137" spans="9:9">
-      <c r="I137" t="s">
+    <row r="133" spans="11:11">
+      <c r="K133" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="138" spans="9:9">
-      <c r="I138" t="s">
+    <row r="134" spans="11:11">
+      <c r="K134" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="139" spans="9:9">
-      <c r="I139" t="s">
+    <row r="135" spans="11:11">
+      <c r="K135" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="140" spans="9:9">
-      <c r="I140" t="s">
+    <row r="136" spans="11:11">
+      <c r="K136" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="141" spans="9:9">
-      <c r="I141" t="s">
+    <row r="137" spans="11:11">
+      <c r="K137" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="142" spans="9:9">
-      <c r="I142" t="s">
+    <row r="138" spans="11:11">
+      <c r="K138" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="143" spans="9:9">
-      <c r="I143" t="s">
+    <row r="139" spans="11:11">
+      <c r="K139" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="144" spans="9:9">
-      <c r="I144" t="s">
+    <row r="140" spans="11:11">
+      <c r="K140" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="145" spans="9:9">
-      <c r="I145" t="s">
+    <row r="141" spans="11:11">
+      <c r="K141" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="146" spans="9:9">
-      <c r="I146" t="s">
+    <row r="142" spans="11:11">
+      <c r="K142" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="9:9">
-      <c r="I147" t="s">
+    <row r="143" spans="11:11">
+      <c r="K143" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="148" spans="9:9">
-      <c r="I148" t="s">
+    <row r="144" spans="11:11">
+      <c r="K144" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="149" spans="9:9">
-      <c r="I149" t="s">
+    <row r="145" spans="11:11">
+      <c r="K145" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="150" spans="9:9">
-      <c r="I150" t="s">
+    <row r="146" spans="11:11">
+      <c r="K146" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="151" spans="9:9">
-      <c r="I151" t="s">
+    <row r="147" spans="11:11">
+      <c r="K147" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="152" spans="9:9">
-      <c r="I152" t="s">
+    <row r="148" spans="11:11">
+      <c r="K148" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="153" spans="9:9">
-      <c r="I153" t="s">
+    <row r="149" spans="11:11">
+      <c r="K149" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="154" spans="9:9">
-      <c r="I154" t="s">
+    <row r="150" spans="11:11">
+      <c r="K150" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="155" spans="9:9">
-      <c r="I155" t="s">
+    <row r="151" spans="11:11">
+      <c r="K151" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="156" spans="9:9">
-      <c r="I156" t="s">
+    <row r="152" spans="11:11">
+      <c r="K152" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="157" spans="9:9">
-      <c r="I157" t="s">
+    <row r="153" spans="11:11">
+      <c r="K153" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="158" spans="9:9">
-      <c r="I158" t="s">
+    <row r="154" spans="11:11">
+      <c r="K154" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="159" spans="9:9">
-      <c r="I159" t="s">
+    <row r="155" spans="11:11">
+      <c r="K155" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="160" spans="9:9">
-      <c r="I160" t="s">
+    <row r="156" spans="11:11">
+      <c r="K156" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="161" spans="9:9">
-      <c r="I161" t="s">
+    <row r="157" spans="11:11">
+      <c r="K157" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="162" spans="9:9">
-      <c r="I162" t="s">
+    <row r="158" spans="11:11">
+      <c r="K158" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="163" spans="9:9">
-      <c r="I163" t="s">
+    <row r="159" spans="11:11">
+      <c r="K159" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="164" spans="9:9">
-      <c r="I164" t="s">
+    <row r="160" spans="11:11">
+      <c r="K160" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="165" spans="9:9">
-      <c r="I165" t="s">
+    <row r="161" spans="11:11">
+      <c r="K161" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="166" spans="9:9">
-      <c r="I166" t="s">
+    <row r="162" spans="11:11">
+      <c r="K162" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="167" spans="9:9">
-      <c r="I167" t="s">
+    <row r="163" spans="11:11">
+      <c r="K163" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="168" spans="9:9">
-      <c r="I168" t="s">
+    <row r="164" spans="11:11">
+      <c r="K164" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="169" spans="9:9">
-      <c r="I169" t="s">
+    <row r="165" spans="11:11">
+      <c r="K165" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="170" spans="9:9">
-      <c r="I170" t="s">
+    <row r="166" spans="11:11">
+      <c r="K166" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="171" spans="9:9">
-      <c r="I171" t="s">
+    <row r="167" spans="11:11">
+      <c r="K167" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="172" spans="9:9">
-      <c r="I172" t="s">
+    <row r="168" spans="11:11">
+      <c r="K168" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="173" spans="9:9">
-      <c r="I173" t="s">
+    <row r="169" spans="11:11">
+      <c r="K169" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="174" spans="9:9">
-      <c r="I174" t="s">
+    <row r="170" spans="11:11">
+      <c r="K170" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="175" spans="9:9">
-      <c r="I175" t="s">
+    <row r="171" spans="11:11">
+      <c r="K171" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="176" spans="9:9">
-      <c r="I176" t="s">
+    <row r="172" spans="11:11">
+      <c r="K172" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="177" spans="9:9">
-      <c r="I177" t="s">
+    <row r="173" spans="11:11">
+      <c r="K173" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="178" spans="9:9">
-      <c r="I178" t="s">
+    <row r="174" spans="11:11">
+      <c r="K174" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="179" spans="9:9">
-      <c r="I179" t="s">
+    <row r="175" spans="11:11">
+      <c r="K175" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="180" spans="9:9">
-      <c r="I180" t="s">
+    <row r="176" spans="11:11">
+      <c r="K176" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="181" spans="9:9">
-      <c r="I181" t="s">
+    <row r="177" spans="11:11">
+      <c r="K177" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="182" spans="9:9">
-      <c r="I182" t="s">
+    <row r="178" spans="11:11">
+      <c r="K178" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="183" spans="9:9">
-      <c r="I183" t="s">
+    <row r="179" spans="11:11">
+      <c r="K179" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="184" spans="9:9">
-      <c r="I184" t="s">
+    <row r="180" spans="11:11">
+      <c r="K180" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="185" spans="9:9">
-      <c r="I185" t="s">
+    <row r="181" spans="11:11">
+      <c r="K181" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="186" spans="9:9">
-      <c r="I186" t="s">
+    <row r="182" spans="11:11">
+      <c r="K182" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="187" spans="9:9">
-      <c r="I187" t="s">
+    <row r="183" spans="11:11">
+      <c r="K183" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="188" spans="9:9">
-      <c r="I188" t="s">
+    <row r="184" spans="11:11">
+      <c r="K184" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="189" spans="9:9">
-      <c r="I189" t="s">
+    <row r="185" spans="11:11">
+      <c r="K185" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="190" spans="9:9">
-      <c r="I190" t="s">
+    <row r="186" spans="11:11">
+      <c r="K186" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="191" spans="9:9">
-      <c r="I191" t="s">
+    <row r="187" spans="11:11">
+      <c r="K187" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="192" spans="9:9">
-      <c r="I192" t="s">
+    <row r="188" spans="11:11">
+      <c r="K188" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="193" spans="9:9">
-      <c r="I193" t="s">
+    <row r="189" spans="11:11">
+      <c r="K189" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="194" spans="9:9">
-      <c r="I194" t="s">
+    <row r="190" spans="11:11">
+      <c r="K190" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="195" spans="9:9">
-      <c r="I195" t="s">
+    <row r="191" spans="11:11">
+      <c r="K191" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="196" spans="9:9">
-      <c r="I196" t="s">
+    <row r="192" spans="11:11">
+      <c r="K192" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="197" spans="9:9">
-      <c r="I197" t="s">
+    <row r="193" spans="11:11">
+      <c r="K193" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="198" spans="9:9">
-      <c r="I198" t="s">
+    <row r="194" spans="11:11">
+      <c r="K194" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="199" spans="9:9">
-      <c r="I199" t="s">
+    <row r="195" spans="11:11">
+      <c r="K195" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="200" spans="9:9">
-      <c r="I200" t="s">
+    <row r="196" spans="11:11">
+      <c r="K196" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="201" spans="9:9">
-      <c r="I201" t="s">
+    <row r="197" spans="11:11">
+      <c r="K197" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="202" spans="9:9">
-      <c r="I202" t="s">
+    <row r="198" spans="11:11">
+      <c r="K198" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="203" spans="9:9">
-      <c r="I203" t="s">
+    <row r="199" spans="11:11">
+      <c r="K199" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="204" spans="9:9">
-      <c r="I204" t="s">
+    <row r="200" spans="11:11">
+      <c r="K200" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="205" spans="9:9">
-      <c r="I205" t="s">
+    <row r="201" spans="11:11">
+      <c r="K201" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="206" spans="9:9">
-      <c r="I206" t="s">
+    <row r="202" spans="11:11">
+      <c r="K202" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="207" spans="9:9">
-      <c r="I207" t="s">
+    <row r="203" spans="11:11">
+      <c r="K203" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="208" spans="9:9">
-      <c r="I208" t="s">
+    <row r="204" spans="11:11">
+      <c r="K204" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="209" spans="9:9">
-      <c r="I209" t="s">
+    <row r="205" spans="11:11">
+      <c r="K205" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="210" spans="9:9">
-      <c r="I210" t="s">
+    <row r="206" spans="11:11">
+      <c r="K206" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="211" spans="9:9">
-      <c r="I211" t="s">
+    <row r="207" spans="11:11">
+      <c r="K207" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="212" spans="9:9">
-      <c r="I212" t="s">
+    <row r="208" spans="11:11">
+      <c r="K208" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="213" spans="9:9">
-      <c r="I213" t="s">
+    <row r="209" spans="11:11">
+      <c r="K209" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="214" spans="9:9">
-      <c r="I214" t="s">
+    <row r="210" spans="11:11">
+      <c r="K210" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="215" spans="9:9">
-      <c r="I215" t="s">
+    <row r="211" spans="11:11">
+      <c r="K211" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="216" spans="9:9">
-      <c r="I216" t="s">
+    <row r="212" spans="11:11">
+      <c r="K212" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="217" spans="9:9">
-      <c r="I217" t="s">
+    <row r="213" spans="11:11">
+      <c r="K213" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="218" spans="9:9">
-      <c r="I218" t="s">
+    <row r="214" spans="11:11">
+      <c r="K214" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="219" spans="9:9">
-      <c r="I219" t="s">
+    <row r="215" spans="11:11">
+      <c r="K215" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="220" spans="9:9">
-      <c r="I220" t="s">
+    <row r="216" spans="11:11">
+      <c r="K216" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="221" spans="9:9">
-      <c r="I221" t="s">
+    <row r="217" spans="11:11">
+      <c r="K217" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="222" spans="9:9">
-      <c r="I222" t="s">
+    <row r="218" spans="11:11">
+      <c r="K218" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="223" spans="9:9">
-      <c r="I223" t="s">
+    <row r="219" spans="11:11">
+      <c r="K219" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="224" spans="9:9">
-      <c r="I224" t="s">
+    <row r="220" spans="11:11">
+      <c r="K220" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="225" spans="9:9">
-      <c r="I225" t="s">
+    <row r="221" spans="11:11">
+      <c r="K221" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="226" spans="9:9">
-      <c r="I226" t="s">
+    <row r="222" spans="11:11">
+      <c r="K222" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="227" spans="9:9">
-      <c r="I227" t="s">
+    <row r="223" spans="11:11">
+      <c r="K223" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="228" spans="9:9">
-      <c r="I228" t="s">
+    <row r="224" spans="11:11">
+      <c r="K224" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="229" spans="9:9">
-      <c r="I229" t="s">
+    <row r="225" spans="11:11">
+      <c r="K225" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="230" spans="9:9">
-      <c r="I230" t="s">
+    <row r="226" spans="11:11">
+      <c r="K226" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="231" spans="9:9">
-      <c r="I231" t="s">
+    <row r="227" spans="11:11">
+      <c r="K227" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="232" spans="9:9">
-      <c r="I232" t="s">
+    <row r="228" spans="11:11">
+      <c r="K228" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="233" spans="9:9">
-      <c r="I233" t="s">
+    <row r="229" spans="11:11">
+      <c r="K229" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="234" spans="9:9">
-      <c r="I234" t="s">
+    <row r="230" spans="11:11">
+      <c r="K230" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="235" spans="9:9">
-      <c r="I235" t="s">
+    <row r="231" spans="11:11">
+      <c r="K231" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="236" spans="9:9">
-      <c r="I236" t="s">
+    <row r="232" spans="11:11">
+      <c r="K232" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="237" spans="9:9">
-      <c r="I237" t="s">
+    <row r="233" spans="11:11">
+      <c r="K233" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="238" spans="9:9">
-      <c r="I238" t="s">
+    <row r="234" spans="11:11">
+      <c r="K234" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="239" spans="9:9">
-      <c r="I239" t="s">
+    <row r="235" spans="11:11">
+      <c r="K235" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="240" spans="9:9">
-      <c r="I240" t="s">
+    <row r="236" spans="11:11">
+      <c r="K236" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="241" spans="9:9">
-      <c r="I241" t="s">
+    <row r="237" spans="11:11">
+      <c r="K237" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="242" spans="9:9">
-      <c r="I242" t="s">
+    <row r="238" spans="11:11">
+      <c r="K238" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="243" spans="9:9">
-      <c r="I243" t="s">
+    <row r="239" spans="11:11">
+      <c r="K239" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="244" spans="9:9">
-      <c r="I244" t="s">
+    <row r="240" spans="11:11">
+      <c r="K240" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="245" spans="9:9">
-      <c r="I245" t="s">
+    <row r="241" spans="11:11">
+      <c r="K241" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="246" spans="9:9">
-      <c r="I246" t="s">
+    <row r="242" spans="11:11">
+      <c r="K242" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="247" spans="9:9">
-      <c r="I247" t="s">
+    <row r="243" spans="11:11">
+      <c r="K243" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="248" spans="9:9">
-      <c r="I248" t="s">
+    <row r="244" spans="11:11">
+      <c r="K244" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="249" spans="9:9">
-      <c r="I249" t="s">
+    <row r="245" spans="11:11">
+      <c r="K245" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="250" spans="9:9">
-      <c r="I250" t="s">
+    <row r="246" spans="11:11">
+      <c r="K246" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="251" spans="9:9">
-      <c r="I251" t="s">
+    <row r="247" spans="11:11">
+      <c r="K247" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="252" spans="9:9">
-      <c r="I252" t="s">
+    <row r="248" spans="11:11">
+      <c r="K248" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="253" spans="9:9">
-      <c r="I253" t="s">
+    <row r="249" spans="11:11">
+      <c r="K249" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="254" spans="9:9">
-      <c r="I254" t="s">
+    <row r="250" spans="11:11">
+      <c r="K250" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="255" spans="9:9">
-      <c r="I255" t="s">
+    <row r="251" spans="11:11">
+      <c r="K251" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="256" spans="9:9">
-      <c r="I256" t="s">
+    <row r="252" spans="11:11">
+      <c r="K252" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="257" spans="9:9">
-      <c r="I257" t="s">
+    <row r="253" spans="11:11">
+      <c r="K253" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="258" spans="9:9">
-      <c r="I258" t="s">
+    <row r="254" spans="11:11">
+      <c r="K254" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="259" spans="9:9">
-      <c r="I259" t="s">
+    <row r="255" spans="11:11">
+      <c r="K255" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="260" spans="9:9">
-      <c r="I260" t="s">
+    <row r="256" spans="11:11">
+      <c r="K256" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="261" spans="9:9">
-      <c r="I261" t="s">
+    <row r="257" spans="11:11">
+      <c r="K257" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="262" spans="9:9">
-      <c r="I262" t="s">
+    <row r="258" spans="11:11">
+      <c r="K258" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="263" spans="9:9">
-      <c r="I263" t="s">
+    <row r="259" spans="11:11">
+      <c r="K259" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="264" spans="9:9">
-      <c r="I264" t="s">
+    <row r="260" spans="11:11">
+      <c r="K260" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="265" spans="9:9">
-      <c r="I265" t="s">
+    <row r="261" spans="11:11">
+      <c r="K261" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="266" spans="9:9">
-      <c r="I266" t="s">
+    <row r="262" spans="11:11">
+      <c r="K262" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="267" spans="9:9">
-      <c r="I267" t="s">
+    <row r="263" spans="11:11">
+      <c r="K263" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="268" spans="9:9">
-      <c r="I268" t="s">
+    <row r="264" spans="11:11">
+      <c r="K264" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="269" spans="9:9">
-      <c r="I269" t="s">
+    <row r="265" spans="11:11">
+      <c r="K265" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="270" spans="9:9">
-      <c r="I270" t="s">
+    <row r="266" spans="11:11">
+      <c r="K266" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="271" spans="9:9">
-      <c r="I271" t="s">
+    <row r="267" spans="11:11">
+      <c r="K267" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="272" spans="9:9">
-      <c r="I272" t="s">
+    <row r="268" spans="11:11">
+      <c r="K268" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="273" spans="9:9">
-      <c r="I273" t="s">
+    <row r="269" spans="11:11">
+      <c r="K269" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="274" spans="9:9">
-      <c r="I274" t="s">
+    <row r="270" spans="11:11">
+      <c r="K270" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="275" spans="9:9">
-      <c r="I275" t="s">
+    <row r="271" spans="11:11">
+      <c r="K271" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="276" spans="9:9">
-      <c r="I276" t="s">
+    <row r="272" spans="11:11">
+      <c r="K272" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="277" spans="9:9">
-      <c r="I277" t="s">
+    <row r="273" spans="11:11">
+      <c r="K273" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="278" spans="9:9">
-      <c r="I278" t="s">
+    <row r="274" spans="11:11">
+      <c r="K274" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="279" spans="9:9">
-      <c r="I279" t="s">
+    <row r="275" spans="11:11">
+      <c r="K275" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="280" spans="9:9">
-      <c r="I280" t="s">
+    <row r="276" spans="11:11">
+      <c r="K276" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="281" spans="9:9">
-      <c r="I281" t="s">
+    <row r="277" spans="11:11">
+      <c r="K277" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="282" spans="9:9">
-      <c r="I282" t="s">
+    <row r="278" spans="11:11">
+      <c r="K278" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="283" spans="9:9">
-      <c r="I283" t="s">
+    <row r="279" spans="11:11">
+      <c r="K279" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="284" spans="9:9">
-      <c r="I284" t="s">
+    <row r="280" spans="11:11">
+      <c r="K280" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="285" spans="9:9">
-      <c r="I285" t="s">
+    <row r="281" spans="11:11">
+      <c r="K281" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="286" spans="9:9">
-      <c r="I286" t="s">
+    <row r="282" spans="11:11">
+      <c r="K282" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="287" spans="9:9">
-      <c r="I287" t="s">
+    <row r="283" spans="11:11">
+      <c r="K283" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="288" spans="9:9">
-      <c r="I288" t="s">
+    <row r="284" spans="11:11">
+      <c r="K284" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="289" spans="9:9">
-      <c r="I289" t="s">
+    <row r="285" spans="11:11">
+      <c r="K285" t="s">
         <v>566</v>
+      </c>
+    </row>
+    <row r="286" spans="11:11">
+      <c r="K286" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="287" spans="11:11">
+      <c r="K287" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="288" spans="11:11">
+      <c r="K288" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="289" spans="11:11">
+      <c r="K289" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000045/metadata_template_ERC000045.xlsx
+++ b/templates/ERC000045/metadata_template_ERC000045.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$K$1:$K$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="584">
   <si>
     <t>alias</t>
   </si>
@@ -1092,9 +1092,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1113,6 +1110,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1314,6 +1314,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1323,9 +1326,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1365,7 +1365,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1434,6 +1434,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1509,6 +1512,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1530,6 +1536,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1575,6 +1584,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1587,6 +1599,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1596,9 +1611,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1623,6 +1635,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1683,10 +1698,10 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
   </si>
   <si>
     <t>Wallis and Futuna</t>
@@ -3342,16 +3357,16 @@
         <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3386,16 +3401,16 @@
         <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -3410,7 +3425,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:K289"/>
+  <dimension ref="K1:K294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4861,6 +4876,31 @@
         <v>570</v>
       </c>
     </row>
+    <row r="290" spans="11:11">
+      <c r="K290" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="291" spans="11:11">
+      <c r="K291" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="292" spans="11:11">
+      <c r="K292" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="293" spans="11:11">
+      <c r="K293" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="294" spans="11:11">
+      <c r="K294" t="s">
+        <v>575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
